--- a/DataValueClustering/experiments/exports/study/2_Measurement_Unit.xlsx
+++ b/DataValueClustering/experiments/exports/study/2_Measurement_Unit.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Feld Dokumentation Lido 1.0" sheetId="4" r:id="rId1"/>
     <sheet name="Feld Dokumentation Lido 1.1" sheetId="5" r:id="rId2"/>
-    <sheet name="Cluster_Repr" sheetId="2" r:id="rId3"/>
+    <sheet name="Cluster_kurz" sheetId="2" r:id="rId3"/>
     <sheet name="Cluster_Original" sheetId="1" r:id="rId4"/>
     <sheet name="Cluster_Repr_Dists" sheetId="3" r:id="rId5"/>
   </sheets>
@@ -1071,6 +1071,66 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1086,73 +1146,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1167,17 +1170,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1912,238 +1912,238 @@
       <c r="S18" s="13"/>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B21" s="41" t="s">
+      <c r="B21" s="35" t="s">
         <v>192</v>
       </c>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="42"/>
-      <c r="M21" s="42"/>
-      <c r="N21" s="42"/>
-      <c r="O21" s="43"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="37"/>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B22" s="54" t="s">
+      <c r="B22" s="38" t="s">
         <v>195</v>
       </c>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="55"/>
-      <c r="K22" s="55"/>
-      <c r="L22" s="55"/>
-      <c r="M22" s="55"/>
-      <c r="N22" s="55"/>
-      <c r="O22" s="56"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="39"/>
+      <c r="O22" s="40"/>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B23" s="17"/>
-      <c r="C23" s="49" t="s">
+      <c r="C23" s="41" t="s">
         <v>196</v>
       </c>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="49"/>
-      <c r="K23" s="49"/>
-      <c r="L23" s="49"/>
-      <c r="M23" s="49"/>
-      <c r="N23" s="49"/>
-      <c r="O23" s="50"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="41"/>
+      <c r="O23" s="42"/>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B24" s="17"/>
       <c r="C24" s="18"/>
-      <c r="D24" s="49" t="s">
+      <c r="D24" s="41" t="s">
         <v>197</v>
       </c>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="49"/>
-      <c r="M24" s="49"/>
-      <c r="N24" s="49"/>
-      <c r="O24" s="50"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="41"/>
+      <c r="O24" s="42"/>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B25" s="17"/>
       <c r="C25" s="18"/>
-      <c r="D25" s="49" t="s">
+      <c r="D25" s="41" t="s">
         <v>198</v>
       </c>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="49"/>
-      <c r="K25" s="49"/>
-      <c r="L25" s="49"/>
-      <c r="M25" s="49"/>
-      <c r="N25" s="49"/>
-      <c r="O25" s="50"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="41"/>
+      <c r="O25" s="42"/>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B26" s="17"/>
       <c r="C26" s="18"/>
       <c r="D26" s="18"/>
-      <c r="E26" s="49" t="s">
+      <c r="E26" s="41" t="s">
         <v>199</v>
       </c>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="49"/>
-      <c r="M26" s="49"/>
-      <c r="N26" s="49"/>
-      <c r="O26" s="50"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="41"/>
+      <c r="O26" s="42"/>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B27" s="17"/>
       <c r="C27" s="18"/>
       <c r="D27" s="18"/>
       <c r="E27" s="18"/>
-      <c r="F27" s="49" t="s">
+      <c r="F27" s="41" t="s">
         <v>200</v>
       </c>
-      <c r="G27" s="49"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="49"/>
-      <c r="K27" s="49"/>
-      <c r="L27" s="49"/>
-      <c r="M27" s="49"/>
-      <c r="N27" s="49"/>
-      <c r="O27" s="50"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="41"/>
+      <c r="O27" s="42"/>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B28" s="17"/>
       <c r="C28" s="18"/>
       <c r="D28" s="18"/>
       <c r="E28" s="18"/>
-      <c r="F28" s="47" t="s">
+      <c r="F28" s="43" t="s">
         <v>201</v>
       </c>
-      <c r="G28" s="47"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="47"/>
-      <c r="K28" s="47"/>
-      <c r="L28" s="47"/>
-      <c r="M28" s="47"/>
-      <c r="N28" s="47"/>
-      <c r="O28" s="48"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="43"/>
+      <c r="N28" s="43"/>
+      <c r="O28" s="44"/>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B29" s="17"/>
       <c r="C29" s="18"/>
       <c r="D29" s="18"/>
       <c r="E29" s="18"/>
-      <c r="F29" s="49" t="s">
+      <c r="F29" s="41" t="s">
         <v>202</v>
       </c>
-      <c r="G29" s="49"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="49"/>
-      <c r="J29" s="49"/>
-      <c r="K29" s="49"/>
-      <c r="L29" s="49"/>
-      <c r="M29" s="49"/>
-      <c r="N29" s="49"/>
-      <c r="O29" s="50"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="41"/>
+      <c r="O29" s="42"/>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B30" s="17"/>
       <c r="C30" s="18"/>
       <c r="D30" s="18"/>
-      <c r="E30" s="49" t="s">
+      <c r="E30" s="41" t="s">
         <v>203</v>
       </c>
-      <c r="F30" s="49"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="49"/>
-      <c r="J30" s="49"/>
-      <c r="K30" s="49"/>
-      <c r="L30" s="49"/>
-      <c r="M30" s="49"/>
-      <c r="N30" s="49"/>
-      <c r="O30" s="50"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="41"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="41"/>
+      <c r="M30" s="41"/>
+      <c r="N30" s="41"/>
+      <c r="O30" s="42"/>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B31" s="17"/>
       <c r="C31" s="18"/>
-      <c r="D31" s="49" t="s">
+      <c r="D31" s="41" t="s">
         <v>204</v>
       </c>
-      <c r="E31" s="49"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="49"/>
-      <c r="K31" s="49"/>
-      <c r="L31" s="49"/>
-      <c r="M31" s="49"/>
-      <c r="N31" s="49"/>
-      <c r="O31" s="50"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="41"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="41"/>
+      <c r="O31" s="42"/>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B32" s="17"/>
-      <c r="C32" s="49" t="s">
+      <c r="C32" s="41" t="s">
         <v>205</v>
       </c>
-      <c r="D32" s="49"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="49"/>
-      <c r="K32" s="49"/>
-      <c r="L32" s="49"/>
-      <c r="M32" s="49"/>
-      <c r="N32" s="49"/>
-      <c r="O32" s="50"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="41"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="41"/>
+      <c r="O32" s="42"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B33" s="51" t="s">
+      <c r="B33" s="32" t="s">
         <v>194</v>
       </c>
-      <c r="C33" s="52"/>
-      <c r="D33" s="52"/>
-      <c r="E33" s="52"/>
-      <c r="F33" s="52"/>
-      <c r="G33" s="52"/>
-      <c r="H33" s="52"/>
-      <c r="I33" s="52"/>
-      <c r="J33" s="52"/>
-      <c r="K33" s="52"/>
-      <c r="L33" s="52"/>
-      <c r="M33" s="52"/>
-      <c r="N33" s="52"/>
-      <c r="O33" s="53"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="33"/>
+      <c r="L33" s="33"/>
+      <c r="M33" s="33"/>
+      <c r="N33" s="33"/>
+      <c r="O33" s="34"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="9"/>
@@ -2183,142 +2183,142 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="9"/>
-      <c r="B36" s="41" t="s">
+      <c r="B36" s="35" t="s">
         <v>206</v>
       </c>
-      <c r="C36" s="42"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="42"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="42"/>
-      <c r="H36" s="42"/>
-      <c r="I36" s="42"/>
-      <c r="J36" s="42"/>
-      <c r="K36" s="42"/>
-      <c r="L36" s="42"/>
-      <c r="M36" s="42"/>
-      <c r="N36" s="42"/>
-      <c r="O36" s="43"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="36"/>
+      <c r="M36" s="36"/>
+      <c r="N36" s="36"/>
+      <c r="O36" s="37"/>
       <c r="P36" s="9"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="9"/>
-      <c r="B37" s="44" t="s">
+      <c r="B37" s="47" t="s">
         <v>220</v>
       </c>
-      <c r="C37" s="45"/>
-      <c r="D37" s="45"/>
-      <c r="E37" s="45"/>
-      <c r="F37" s="45"/>
-      <c r="G37" s="45"/>
-      <c r="H37" s="45"/>
-      <c r="I37" s="45"/>
-      <c r="J37" s="45"/>
-      <c r="K37" s="45"/>
-      <c r="L37" s="45"/>
-      <c r="M37" s="45"/>
-      <c r="N37" s="45"/>
-      <c r="O37" s="46"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="48"/>
+      <c r="I37" s="48"/>
+      <c r="J37" s="48"/>
+      <c r="K37" s="48"/>
+      <c r="L37" s="48"/>
+      <c r="M37" s="48"/>
+      <c r="N37" s="48"/>
+      <c r="O37" s="49"/>
       <c r="P37" s="9"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="9"/>
       <c r="B38" s="21"/>
-      <c r="C38" s="37" t="s">
+      <c r="C38" s="50" t="s">
         <v>208</v>
       </c>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="37"/>
-      <c r="J38" s="37"/>
-      <c r="K38" s="37"/>
-      <c r="L38" s="37"/>
-      <c r="M38" s="37"/>
-      <c r="N38" s="37"/>
-      <c r="O38" s="38"/>
+      <c r="D38" s="50"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="50"/>
+      <c r="G38" s="50"/>
+      <c r="H38" s="50"/>
+      <c r="I38" s="50"/>
+      <c r="J38" s="50"/>
+      <c r="K38" s="50"/>
+      <c r="L38" s="50"/>
+      <c r="M38" s="50"/>
+      <c r="N38" s="50"/>
+      <c r="O38" s="51"/>
       <c r="P38" s="9"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="9"/>
       <c r="B39" s="21"/>
       <c r="C39" s="22"/>
-      <c r="D39" s="37" t="s">
+      <c r="D39" s="50" t="s">
         <v>209</v>
       </c>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="37"/>
-      <c r="I39" s="37"/>
-      <c r="J39" s="37"/>
-      <c r="K39" s="37"/>
-      <c r="L39" s="37"/>
-      <c r="M39" s="37"/>
-      <c r="N39" s="37"/>
-      <c r="O39" s="38"/>
+      <c r="E39" s="50"/>
+      <c r="F39" s="50"/>
+      <c r="G39" s="50"/>
+      <c r="H39" s="50"/>
+      <c r="I39" s="50"/>
+      <c r="J39" s="50"/>
+      <c r="K39" s="50"/>
+      <c r="L39" s="50"/>
+      <c r="M39" s="50"/>
+      <c r="N39" s="50"/>
+      <c r="O39" s="51"/>
       <c r="P39" s="9"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="9"/>
       <c r="B40" s="21"/>
-      <c r="C40" s="37" t="s">
+      <c r="C40" s="50" t="s">
         <v>210</v>
       </c>
-      <c r="D40" s="37"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="37"/>
-      <c r="I40" s="37"/>
-      <c r="J40" s="37"/>
-      <c r="K40" s="37"/>
-      <c r="L40" s="37"/>
-      <c r="M40" s="37"/>
-      <c r="N40" s="37"/>
-      <c r="O40" s="38"/>
+      <c r="D40" s="50"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="50"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="50"/>
+      <c r="I40" s="50"/>
+      <c r="J40" s="50"/>
+      <c r="K40" s="50"/>
+      <c r="L40" s="50"/>
+      <c r="M40" s="50"/>
+      <c r="N40" s="50"/>
+      <c r="O40" s="51"/>
       <c r="P40" s="9"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="9"/>
       <c r="B41" s="21"/>
-      <c r="C41" s="37" t="s">
+      <c r="C41" s="50" t="s">
         <v>211</v>
       </c>
-      <c r="D41" s="37"/>
-      <c r="E41" s="37"/>
-      <c r="F41" s="37"/>
-      <c r="G41" s="37"/>
-      <c r="H41" s="37"/>
-      <c r="I41" s="37"/>
-      <c r="J41" s="37"/>
-      <c r="K41" s="37"/>
-      <c r="L41" s="37"/>
-      <c r="M41" s="37"/>
-      <c r="N41" s="37"/>
-      <c r="O41" s="38"/>
+      <c r="D41" s="50"/>
+      <c r="E41" s="50"/>
+      <c r="F41" s="50"/>
+      <c r="G41" s="50"/>
+      <c r="H41" s="50"/>
+      <c r="I41" s="50"/>
+      <c r="J41" s="50"/>
+      <c r="K41" s="50"/>
+      <c r="L41" s="50"/>
+      <c r="M41" s="50"/>
+      <c r="N41" s="50"/>
+      <c r="O41" s="51"/>
       <c r="P41" s="9"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="9"/>
       <c r="B42" s="21"/>
       <c r="C42" s="22"/>
-      <c r="D42" s="37" t="s">
+      <c r="D42" s="50" t="s">
         <v>212</v>
       </c>
-      <c r="E42" s="37"/>
-      <c r="F42" s="37"/>
-      <c r="G42" s="37"/>
-      <c r="H42" s="37"/>
-      <c r="I42" s="37"/>
-      <c r="J42" s="37"/>
-      <c r="K42" s="37"/>
-      <c r="L42" s="37"/>
-      <c r="M42" s="37"/>
-      <c r="N42" s="37"/>
-      <c r="O42" s="38"/>
+      <c r="E42" s="50"/>
+      <c r="F42" s="50"/>
+      <c r="G42" s="50"/>
+      <c r="H42" s="50"/>
+      <c r="I42" s="50"/>
+      <c r="J42" s="50"/>
+      <c r="K42" s="50"/>
+      <c r="L42" s="50"/>
+      <c r="M42" s="50"/>
+      <c r="N42" s="50"/>
+      <c r="O42" s="51"/>
       <c r="P42" s="9"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
@@ -2326,243 +2326,263 @@
       <c r="B43" s="21"/>
       <c r="C43" s="22"/>
       <c r="D43" s="22"/>
-      <c r="E43" s="37" t="s">
+      <c r="E43" s="50" t="s">
         <v>213</v>
       </c>
-      <c r="F43" s="37"/>
-      <c r="G43" s="37"/>
-      <c r="H43" s="37"/>
-      <c r="I43" s="37"/>
-      <c r="J43" s="37"/>
-      <c r="K43" s="37"/>
-      <c r="L43" s="37"/>
-      <c r="M43" s="37"/>
-      <c r="N43" s="37"/>
-      <c r="O43" s="38"/>
+      <c r="F43" s="50"/>
+      <c r="G43" s="50"/>
+      <c r="H43" s="50"/>
+      <c r="I43" s="50"/>
+      <c r="J43" s="50"/>
+      <c r="K43" s="50"/>
+      <c r="L43" s="50"/>
+      <c r="M43" s="50"/>
+      <c r="N43" s="50"/>
+      <c r="O43" s="51"/>
       <c r="P43" s="9"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="9"/>
       <c r="B44" s="21"/>
       <c r="C44" s="22"/>
-      <c r="D44" s="37" t="s">
+      <c r="D44" s="50" t="s">
         <v>214</v>
       </c>
-      <c r="E44" s="37"/>
-      <c r="F44" s="37"/>
-      <c r="G44" s="37"/>
-      <c r="H44" s="37"/>
-      <c r="I44" s="37"/>
-      <c r="J44" s="37"/>
-      <c r="K44" s="37"/>
-      <c r="L44" s="37"/>
-      <c r="M44" s="37"/>
-      <c r="N44" s="37"/>
-      <c r="O44" s="38"/>
+      <c r="E44" s="50"/>
+      <c r="F44" s="50"/>
+      <c r="G44" s="50"/>
+      <c r="H44" s="50"/>
+      <c r="I44" s="50"/>
+      <c r="J44" s="50"/>
+      <c r="K44" s="50"/>
+      <c r="L44" s="50"/>
+      <c r="M44" s="50"/>
+      <c r="N44" s="50"/>
+      <c r="O44" s="51"/>
       <c r="P44" s="9"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="9"/>
       <c r="B45" s="23"/>
       <c r="C45" s="24"/>
-      <c r="D45" s="39" t="s">
+      <c r="D45" s="45" t="s">
         <v>215</v>
       </c>
-      <c r="E45" s="39"/>
-      <c r="F45" s="39"/>
-      <c r="G45" s="39"/>
-      <c r="H45" s="39"/>
-      <c r="I45" s="39"/>
-      <c r="J45" s="39"/>
-      <c r="K45" s="39"/>
-      <c r="L45" s="39"/>
-      <c r="M45" s="39"/>
-      <c r="N45" s="39"/>
-      <c r="O45" s="40"/>
+      <c r="E45" s="45"/>
+      <c r="F45" s="45"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="45"/>
+      <c r="I45" s="45"/>
+      <c r="J45" s="45"/>
+      <c r="K45" s="45"/>
+      <c r="L45" s="45"/>
+      <c r="M45" s="45"/>
+      <c r="N45" s="45"/>
+      <c r="O45" s="46"/>
       <c r="P45" s="9"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B46" s="23"/>
       <c r="C46" s="24"/>
       <c r="D46" s="25"/>
-      <c r="E46" s="39" t="s">
+      <c r="E46" s="45" t="s">
         <v>208</v>
       </c>
-      <c r="F46" s="39"/>
-      <c r="G46" s="39"/>
-      <c r="H46" s="39"/>
-      <c r="I46" s="39"/>
-      <c r="J46" s="39"/>
-      <c r="K46" s="39"/>
-      <c r="L46" s="39"/>
-      <c r="M46" s="39"/>
-      <c r="N46" s="39"/>
-      <c r="O46" s="40"/>
+      <c r="F46" s="45"/>
+      <c r="G46" s="45"/>
+      <c r="H46" s="45"/>
+      <c r="I46" s="45"/>
+      <c r="J46" s="45"/>
+      <c r="K46" s="45"/>
+      <c r="L46" s="45"/>
+      <c r="M46" s="45"/>
+      <c r="N46" s="45"/>
+      <c r="O46" s="46"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B47" s="23"/>
       <c r="C47" s="24"/>
       <c r="D47" s="25"/>
       <c r="E47" s="25"/>
-      <c r="F47" s="39" t="s">
+      <c r="F47" s="45" t="s">
         <v>216</v>
       </c>
-      <c r="G47" s="39"/>
-      <c r="H47" s="39"/>
-      <c r="I47" s="39"/>
-      <c r="J47" s="39"/>
-      <c r="K47" s="39"/>
-      <c r="L47" s="39"/>
-      <c r="M47" s="39"/>
-      <c r="N47" s="39"/>
-      <c r="O47" s="40"/>
+      <c r="G47" s="45"/>
+      <c r="H47" s="45"/>
+      <c r="I47" s="45"/>
+      <c r="J47" s="45"/>
+      <c r="K47" s="45"/>
+      <c r="L47" s="45"/>
+      <c r="M47" s="45"/>
+      <c r="N47" s="45"/>
+      <c r="O47" s="46"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B48" s="23"/>
       <c r="C48" s="24"/>
       <c r="D48" s="25"/>
       <c r="E48" s="25"/>
-      <c r="F48" s="39" t="s">
+      <c r="F48" s="45" t="s">
         <v>217</v>
       </c>
-      <c r="G48" s="39"/>
-      <c r="H48" s="39"/>
-      <c r="I48" s="39"/>
-      <c r="J48" s="39"/>
-      <c r="K48" s="39"/>
-      <c r="L48" s="39"/>
-      <c r="M48" s="39"/>
-      <c r="N48" s="39"/>
-      <c r="O48" s="40"/>
+      <c r="G48" s="45"/>
+      <c r="H48" s="45"/>
+      <c r="I48" s="45"/>
+      <c r="J48" s="45"/>
+      <c r="K48" s="45"/>
+      <c r="L48" s="45"/>
+      <c r="M48" s="45"/>
+      <c r="N48" s="45"/>
+      <c r="O48" s="46"/>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B49" s="23"/>
       <c r="C49" s="24"/>
       <c r="D49" s="25"/>
-      <c r="E49" s="39" t="s">
+      <c r="E49" s="45" t="s">
         <v>210</v>
       </c>
-      <c r="F49" s="39"/>
-      <c r="G49" s="39"/>
-      <c r="H49" s="39"/>
-      <c r="I49" s="39"/>
-      <c r="J49" s="39"/>
-      <c r="K49" s="39"/>
-      <c r="L49" s="39"/>
-      <c r="M49" s="39"/>
-      <c r="N49" s="39"/>
-      <c r="O49" s="40"/>
+      <c r="F49" s="45"/>
+      <c r="G49" s="45"/>
+      <c r="H49" s="45"/>
+      <c r="I49" s="45"/>
+      <c r="J49" s="45"/>
+      <c r="K49" s="45"/>
+      <c r="L49" s="45"/>
+      <c r="M49" s="45"/>
+      <c r="N49" s="45"/>
+      <c r="O49" s="46"/>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B50" s="23"/>
       <c r="C50" s="24"/>
-      <c r="D50" s="39" t="s">
+      <c r="D50" s="45" t="s">
         <v>214</v>
       </c>
-      <c r="E50" s="39"/>
-      <c r="F50" s="39"/>
-      <c r="G50" s="39"/>
-      <c r="H50" s="39"/>
-      <c r="I50" s="39"/>
-      <c r="J50" s="39"/>
-      <c r="K50" s="39"/>
-      <c r="L50" s="39"/>
-      <c r="M50" s="39"/>
-      <c r="N50" s="39"/>
-      <c r="O50" s="40"/>
+      <c r="E50" s="45"/>
+      <c r="F50" s="45"/>
+      <c r="G50" s="45"/>
+      <c r="H50" s="45"/>
+      <c r="I50" s="45"/>
+      <c r="J50" s="45"/>
+      <c r="K50" s="45"/>
+      <c r="L50" s="45"/>
+      <c r="M50" s="45"/>
+      <c r="N50" s="45"/>
+      <c r="O50" s="46"/>
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B51" s="23"/>
       <c r="C51" s="24"/>
-      <c r="D51" s="32" t="s">
+      <c r="D51" s="52" t="s">
         <v>218</v>
       </c>
-      <c r="E51" s="32"/>
-      <c r="F51" s="32"/>
-      <c r="G51" s="32"/>
-      <c r="H51" s="32"/>
-      <c r="I51" s="32"/>
-      <c r="J51" s="32"/>
-      <c r="K51" s="32"/>
-      <c r="L51" s="32"/>
-      <c r="M51" s="32"/>
-      <c r="N51" s="32"/>
-      <c r="O51" s="33"/>
+      <c r="E51" s="52"/>
+      <c r="F51" s="52"/>
+      <c r="G51" s="52"/>
+      <c r="H51" s="52"/>
+      <c r="I51" s="52"/>
+      <c r="J51" s="52"/>
+      <c r="K51" s="52"/>
+      <c r="L51" s="52"/>
+      <c r="M51" s="52"/>
+      <c r="N51" s="52"/>
+      <c r="O51" s="53"/>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B52" s="23"/>
       <c r="C52" s="24"/>
       <c r="D52" s="24"/>
-      <c r="E52" s="32" t="s">
+      <c r="E52" s="52" t="s">
         <v>213</v>
       </c>
-      <c r="F52" s="32"/>
-      <c r="G52" s="32"/>
-      <c r="H52" s="32"/>
-      <c r="I52" s="32"/>
-      <c r="J52" s="32"/>
-      <c r="K52" s="32"/>
-      <c r="L52" s="32"/>
-      <c r="M52" s="32"/>
-      <c r="N52" s="32"/>
-      <c r="O52" s="33"/>
+      <c r="F52" s="52"/>
+      <c r="G52" s="52"/>
+      <c r="H52" s="52"/>
+      <c r="I52" s="52"/>
+      <c r="J52" s="52"/>
+      <c r="K52" s="52"/>
+      <c r="L52" s="52"/>
+      <c r="M52" s="52"/>
+      <c r="N52" s="52"/>
+      <c r="O52" s="53"/>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B53" s="23"/>
       <c r="C53" s="24"/>
-      <c r="D53" s="32" t="s">
+      <c r="D53" s="52" t="s">
         <v>214</v>
       </c>
-      <c r="E53" s="32"/>
-      <c r="F53" s="32"/>
-      <c r="G53" s="32"/>
-      <c r="H53" s="32"/>
-      <c r="I53" s="32"/>
-      <c r="J53" s="32"/>
-      <c r="K53" s="32"/>
-      <c r="L53" s="32"/>
-      <c r="M53" s="32"/>
-      <c r="N53" s="32"/>
-      <c r="O53" s="33"/>
+      <c r="E53" s="52"/>
+      <c r="F53" s="52"/>
+      <c r="G53" s="52"/>
+      <c r="H53" s="52"/>
+      <c r="I53" s="52"/>
+      <c r="J53" s="52"/>
+      <c r="K53" s="52"/>
+      <c r="L53" s="52"/>
+      <c r="M53" s="52"/>
+      <c r="N53" s="52"/>
+      <c r="O53" s="53"/>
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B54" s="23"/>
-      <c r="C54" s="32" t="s">
+      <c r="C54" s="52" t="s">
         <v>219</v>
       </c>
-      <c r="D54" s="32"/>
-      <c r="E54" s="32"/>
-      <c r="F54" s="32"/>
-      <c r="G54" s="32"/>
-      <c r="H54" s="32"/>
-      <c r="I54" s="32"/>
-      <c r="J54" s="32"/>
-      <c r="K54" s="32"/>
-      <c r="L54" s="32"/>
-      <c r="M54" s="32"/>
-      <c r="N54" s="32"/>
-      <c r="O54" s="33"/>
+      <c r="D54" s="52"/>
+      <c r="E54" s="52"/>
+      <c r="F54" s="52"/>
+      <c r="G54" s="52"/>
+      <c r="H54" s="52"/>
+      <c r="I54" s="52"/>
+      <c r="J54" s="52"/>
+      <c r="K54" s="52"/>
+      <c r="L54" s="52"/>
+      <c r="M54" s="52"/>
+      <c r="N54" s="52"/>
+      <c r="O54" s="53"/>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B55" s="34" t="s">
+      <c r="B55" s="54" t="s">
         <v>207</v>
       </c>
-      <c r="C55" s="35"/>
-      <c r="D55" s="35"/>
-      <c r="E55" s="35"/>
-      <c r="F55" s="35"/>
-      <c r="G55" s="35"/>
-      <c r="H55" s="35"/>
-      <c r="I55" s="35"/>
-      <c r="J55" s="35"/>
-      <c r="K55" s="35"/>
-      <c r="L55" s="35"/>
-      <c r="M55" s="35"/>
-      <c r="N55" s="35"/>
-      <c r="O55" s="36"/>
+      <c r="C55" s="55"/>
+      <c r="D55" s="55"/>
+      <c r="E55" s="55"/>
+      <c r="F55" s="55"/>
+      <c r="G55" s="55"/>
+      <c r="H55" s="55"/>
+      <c r="I55" s="55"/>
+      <c r="J55" s="55"/>
+      <c r="K55" s="55"/>
+      <c r="L55" s="55"/>
+      <c r="M55" s="55"/>
+      <c r="N55" s="55"/>
+      <c r="O55" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="C54:O54"/>
+    <mergeCell ref="B55:O55"/>
+    <mergeCell ref="F48:O48"/>
+    <mergeCell ref="E49:O49"/>
+    <mergeCell ref="D50:O50"/>
+    <mergeCell ref="D51:O51"/>
+    <mergeCell ref="E52:O52"/>
+    <mergeCell ref="D53:O53"/>
+    <mergeCell ref="F47:O47"/>
+    <mergeCell ref="B36:O36"/>
+    <mergeCell ref="B37:O37"/>
+    <mergeCell ref="C38:O38"/>
+    <mergeCell ref="D39:O39"/>
+    <mergeCell ref="C40:O40"/>
+    <mergeCell ref="C41:O41"/>
+    <mergeCell ref="D42:O42"/>
+    <mergeCell ref="E43:O43"/>
+    <mergeCell ref="D44:O44"/>
+    <mergeCell ref="D45:O45"/>
+    <mergeCell ref="E46:O46"/>
     <mergeCell ref="B33:O33"/>
     <mergeCell ref="B21:O21"/>
     <mergeCell ref="B22:O22"/>
@@ -2576,26 +2596,6 @@
     <mergeCell ref="E30:O30"/>
     <mergeCell ref="D31:O31"/>
     <mergeCell ref="C32:O32"/>
-    <mergeCell ref="F47:O47"/>
-    <mergeCell ref="B36:O36"/>
-    <mergeCell ref="B37:O37"/>
-    <mergeCell ref="C38:O38"/>
-    <mergeCell ref="D39:O39"/>
-    <mergeCell ref="C40:O40"/>
-    <mergeCell ref="C41:O41"/>
-    <mergeCell ref="D42:O42"/>
-    <mergeCell ref="E43:O43"/>
-    <mergeCell ref="D44:O44"/>
-    <mergeCell ref="D45:O45"/>
-    <mergeCell ref="E46:O46"/>
-    <mergeCell ref="C54:O54"/>
-    <mergeCell ref="B55:O55"/>
-    <mergeCell ref="F48:O48"/>
-    <mergeCell ref="E49:O49"/>
-    <mergeCell ref="D50:O50"/>
-    <mergeCell ref="D51:O51"/>
-    <mergeCell ref="E52:O52"/>
-    <mergeCell ref="D53:O53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2613,76 +2613,76 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="46" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B46" s="41" t="s">
+      <c r="B46" s="35" t="s">
         <v>206</v>
       </c>
-      <c r="C46" s="42"/>
-      <c r="D46" s="42"/>
-      <c r="E46" s="42"/>
-      <c r="F46" s="42"/>
-      <c r="G46" s="42"/>
-      <c r="H46" s="42"/>
-      <c r="I46" s="42"/>
-      <c r="J46" s="42"/>
-      <c r="K46" s="42"/>
-      <c r="L46" s="42"/>
-      <c r="M46" s="42"/>
-      <c r="N46" s="42"/>
-      <c r="O46" s="43"/>
+      <c r="C46" s="36"/>
+      <c r="D46" s="36"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="36"/>
+      <c r="G46" s="36"/>
+      <c r="H46" s="36"/>
+      <c r="I46" s="36"/>
+      <c r="J46" s="36"/>
+      <c r="K46" s="36"/>
+      <c r="L46" s="36"/>
+      <c r="M46" s="36"/>
+      <c r="N46" s="36"/>
+      <c r="O46" s="37"/>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B47" s="44" t="s">
+      <c r="B47" s="47" t="s">
         <v>220</v>
       </c>
-      <c r="C47" s="45"/>
-      <c r="D47" s="45"/>
-      <c r="E47" s="45"/>
-      <c r="F47" s="45"/>
-      <c r="G47" s="45"/>
-      <c r="H47" s="45"/>
-      <c r="I47" s="45"/>
-      <c r="J47" s="45"/>
-      <c r="K47" s="45"/>
-      <c r="L47" s="45"/>
-      <c r="M47" s="45"/>
-      <c r="N47" s="45"/>
-      <c r="O47" s="46"/>
+      <c r="C47" s="48"/>
+      <c r="D47" s="48"/>
+      <c r="E47" s="48"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="48"/>
+      <c r="H47" s="48"/>
+      <c r="I47" s="48"/>
+      <c r="J47" s="48"/>
+      <c r="K47" s="48"/>
+      <c r="L47" s="48"/>
+      <c r="M47" s="48"/>
+      <c r="N47" s="48"/>
+      <c r="O47" s="49"/>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B48" s="21"/>
-      <c r="C48" s="37" t="s">
+      <c r="C48" s="50" t="s">
         <v>208</v>
       </c>
-      <c r="D48" s="37"/>
-      <c r="E48" s="37"/>
-      <c r="F48" s="37"/>
-      <c r="G48" s="37"/>
-      <c r="H48" s="37"/>
-      <c r="I48" s="37"/>
-      <c r="J48" s="37"/>
-      <c r="K48" s="37"/>
-      <c r="L48" s="37"/>
-      <c r="M48" s="37"/>
-      <c r="N48" s="37"/>
-      <c r="O48" s="38"/>
+      <c r="D48" s="50"/>
+      <c r="E48" s="50"/>
+      <c r="F48" s="50"/>
+      <c r="G48" s="50"/>
+      <c r="H48" s="50"/>
+      <c r="I48" s="50"/>
+      <c r="J48" s="50"/>
+      <c r="K48" s="50"/>
+      <c r="L48" s="50"/>
+      <c r="M48" s="50"/>
+      <c r="N48" s="50"/>
+      <c r="O48" s="51"/>
     </row>
     <row r="49" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B49" s="21"/>
       <c r="C49" s="26"/>
-      <c r="D49" s="66" t="s">
+      <c r="D49" s="57" t="s">
         <v>221</v>
       </c>
-      <c r="E49" s="66"/>
-      <c r="F49" s="66"/>
-      <c r="G49" s="66"/>
-      <c r="H49" s="66"/>
-      <c r="I49" s="66"/>
-      <c r="J49" s="66"/>
-      <c r="K49" s="66"/>
-      <c r="L49" s="66"/>
-      <c r="M49" s="66"/>
-      <c r="N49" s="66"/>
-      <c r="O49" s="67"/>
+      <c r="E49" s="57"/>
+      <c r="F49" s="57"/>
+      <c r="G49" s="57"/>
+      <c r="H49" s="57"/>
+      <c r="I49" s="57"/>
+      <c r="J49" s="57"/>
+      <c r="K49" s="57"/>
+      <c r="L49" s="57"/>
+      <c r="M49" s="57"/>
+      <c r="N49" s="57"/>
+      <c r="O49" s="58"/>
       <c r="P49" s="27"/>
       <c r="Q49" s="27"/>
     </row>
@@ -2690,19 +2690,19 @@
       <c r="B50" s="21"/>
       <c r="C50" s="26"/>
       <c r="D50" s="26"/>
-      <c r="E50" s="66" t="s">
+      <c r="E50" s="57" t="s">
         <v>222</v>
       </c>
-      <c r="F50" s="66"/>
-      <c r="G50" s="66"/>
-      <c r="H50" s="66"/>
-      <c r="I50" s="66"/>
-      <c r="J50" s="66"/>
-      <c r="K50" s="66"/>
-      <c r="L50" s="66"/>
-      <c r="M50" s="66"/>
-      <c r="N50" s="66"/>
-      <c r="O50" s="67"/>
+      <c r="F50" s="57"/>
+      <c r="G50" s="57"/>
+      <c r="H50" s="57"/>
+      <c r="I50" s="57"/>
+      <c r="J50" s="57"/>
+      <c r="K50" s="57"/>
+      <c r="L50" s="57"/>
+      <c r="M50" s="57"/>
+      <c r="N50" s="57"/>
+      <c r="O50" s="58"/>
       <c r="P50" s="27"/>
       <c r="Q50" s="27"/>
     </row>
@@ -2710,19 +2710,19 @@
       <c r="B51" s="21"/>
       <c r="C51" s="26"/>
       <c r="D51" s="26"/>
-      <c r="E51" s="66" t="s">
+      <c r="E51" s="57" t="s">
         <v>223</v>
       </c>
-      <c r="F51" s="66"/>
-      <c r="G51" s="66"/>
-      <c r="H51" s="66"/>
-      <c r="I51" s="66"/>
-      <c r="J51" s="66"/>
-      <c r="K51" s="66"/>
-      <c r="L51" s="66"/>
-      <c r="M51" s="66"/>
-      <c r="N51" s="66"/>
-      <c r="O51" s="67"/>
+      <c r="F51" s="57"/>
+      <c r="G51" s="57"/>
+      <c r="H51" s="57"/>
+      <c r="I51" s="57"/>
+      <c r="J51" s="57"/>
+      <c r="K51" s="57"/>
+      <c r="L51" s="57"/>
+      <c r="M51" s="57"/>
+      <c r="N51" s="57"/>
+      <c r="O51" s="58"/>
       <c r="P51" s="27"/>
       <c r="Q51" s="27"/>
     </row>
@@ -2731,18 +2731,18 @@
       <c r="C52" s="26"/>
       <c r="D52" s="26"/>
       <c r="E52" s="26"/>
-      <c r="F52" s="66" t="s">
+      <c r="F52" s="57" t="s">
         <v>224</v>
       </c>
-      <c r="G52" s="66"/>
-      <c r="H52" s="66"/>
-      <c r="I52" s="66"/>
-      <c r="J52" s="66"/>
-      <c r="K52" s="66"/>
-      <c r="L52" s="66"/>
-      <c r="M52" s="66"/>
-      <c r="N52" s="66"/>
-      <c r="O52" s="67"/>
+      <c r="G52" s="57"/>
+      <c r="H52" s="57"/>
+      <c r="I52" s="57"/>
+      <c r="J52" s="57"/>
+      <c r="K52" s="57"/>
+      <c r="L52" s="57"/>
+      <c r="M52" s="57"/>
+      <c r="N52" s="57"/>
+      <c r="O52" s="58"/>
       <c r="P52" s="27"/>
       <c r="Q52" s="27"/>
     </row>
@@ -2752,17 +2752,17 @@
       <c r="D53" s="26"/>
       <c r="E53" s="26"/>
       <c r="F53" s="26"/>
-      <c r="G53" s="66" t="s">
+      <c r="G53" s="57" t="s">
         <v>225</v>
       </c>
-      <c r="H53" s="66"/>
-      <c r="I53" s="66"/>
-      <c r="J53" s="66"/>
-      <c r="K53" s="66"/>
-      <c r="L53" s="66"/>
-      <c r="M53" s="66"/>
-      <c r="N53" s="66"/>
-      <c r="O53" s="67"/>
+      <c r="H53" s="57"/>
+      <c r="I53" s="57"/>
+      <c r="J53" s="57"/>
+      <c r="K53" s="57"/>
+      <c r="L53" s="57"/>
+      <c r="M53" s="57"/>
+      <c r="N53" s="57"/>
+      <c r="O53" s="58"/>
       <c r="P53" s="27"/>
       <c r="Q53" s="27"/>
     </row>
@@ -2772,17 +2772,17 @@
       <c r="D54" s="26"/>
       <c r="E54" s="26"/>
       <c r="F54" s="26"/>
-      <c r="G54" s="66" t="s">
+      <c r="G54" s="57" t="s">
         <v>226</v>
       </c>
-      <c r="H54" s="66"/>
-      <c r="I54" s="66"/>
-      <c r="J54" s="66"/>
-      <c r="K54" s="66"/>
-      <c r="L54" s="66"/>
-      <c r="M54" s="66"/>
-      <c r="N54" s="66"/>
-      <c r="O54" s="67"/>
+      <c r="H54" s="57"/>
+      <c r="I54" s="57"/>
+      <c r="J54" s="57"/>
+      <c r="K54" s="57"/>
+      <c r="L54" s="57"/>
+      <c r="M54" s="57"/>
+      <c r="N54" s="57"/>
+      <c r="O54" s="58"/>
       <c r="P54" s="27"/>
       <c r="Q54" s="27"/>
     </row>
@@ -2792,17 +2792,17 @@
       <c r="D55" s="28"/>
       <c r="E55" s="28"/>
       <c r="F55" s="28"/>
-      <c r="G55" s="64" t="s">
+      <c r="G55" s="59" t="s">
         <v>227</v>
       </c>
-      <c r="H55" s="64"/>
-      <c r="I55" s="64"/>
-      <c r="J55" s="64"/>
-      <c r="K55" s="64"/>
-      <c r="L55" s="64"/>
-      <c r="M55" s="64"/>
-      <c r="N55" s="64"/>
-      <c r="O55" s="65"/>
+      <c r="H55" s="59"/>
+      <c r="I55" s="59"/>
+      <c r="J55" s="59"/>
+      <c r="K55" s="59"/>
+      <c r="L55" s="59"/>
+      <c r="M55" s="59"/>
+      <c r="N55" s="59"/>
+      <c r="O55" s="60"/>
       <c r="P55" s="27"/>
       <c r="Q55" s="27"/>
     </row>
@@ -2812,17 +2812,17 @@
       <c r="D56" s="28"/>
       <c r="E56" s="28"/>
       <c r="F56" s="28"/>
-      <c r="G56" s="64" t="s">
+      <c r="G56" s="59" t="s">
         <v>226</v>
       </c>
-      <c r="H56" s="64"/>
-      <c r="I56" s="64"/>
-      <c r="J56" s="64"/>
-      <c r="K56" s="64"/>
-      <c r="L56" s="64"/>
-      <c r="M56" s="64"/>
-      <c r="N56" s="64"/>
-      <c r="O56" s="65"/>
+      <c r="H56" s="59"/>
+      <c r="I56" s="59"/>
+      <c r="J56" s="59"/>
+      <c r="K56" s="59"/>
+      <c r="L56" s="59"/>
+      <c r="M56" s="59"/>
+      <c r="N56" s="59"/>
+      <c r="O56" s="60"/>
       <c r="P56" s="27"/>
       <c r="Q56" s="27"/>
     </row>
@@ -2832,17 +2832,17 @@
       <c r="D57" s="28"/>
       <c r="E57" s="28"/>
       <c r="F57" s="28"/>
-      <c r="G57" s="64" t="s">
+      <c r="G57" s="59" t="s">
         <v>228</v>
       </c>
-      <c r="H57" s="64"/>
-      <c r="I57" s="64"/>
-      <c r="J57" s="64"/>
-      <c r="K57" s="64"/>
-      <c r="L57" s="64"/>
-      <c r="M57" s="64"/>
-      <c r="N57" s="64"/>
-      <c r="O57" s="65"/>
+      <c r="H57" s="59"/>
+      <c r="I57" s="59"/>
+      <c r="J57" s="59"/>
+      <c r="K57" s="59"/>
+      <c r="L57" s="59"/>
+      <c r="M57" s="59"/>
+      <c r="N57" s="59"/>
+      <c r="O57" s="60"/>
       <c r="P57" s="27"/>
       <c r="Q57" s="27"/>
     </row>
@@ -2852,17 +2852,17 @@
       <c r="D58" s="28"/>
       <c r="E58" s="28"/>
       <c r="F58" s="28"/>
-      <c r="G58" s="64" t="s">
+      <c r="G58" s="59" t="s">
         <v>229</v>
       </c>
-      <c r="H58" s="64"/>
-      <c r="I58" s="64"/>
-      <c r="J58" s="64"/>
-      <c r="K58" s="64"/>
-      <c r="L58" s="64"/>
-      <c r="M58" s="64"/>
-      <c r="N58" s="64"/>
-      <c r="O58" s="65"/>
+      <c r="H58" s="59"/>
+      <c r="I58" s="59"/>
+      <c r="J58" s="59"/>
+      <c r="K58" s="59"/>
+      <c r="L58" s="59"/>
+      <c r="M58" s="59"/>
+      <c r="N58" s="59"/>
+      <c r="O58" s="60"/>
       <c r="P58" s="27"/>
       <c r="Q58" s="27"/>
     </row>
@@ -2872,17 +2872,17 @@
       <c r="D59" s="28"/>
       <c r="E59" s="28"/>
       <c r="F59" s="28"/>
-      <c r="G59" s="64" t="s">
+      <c r="G59" s="59" t="s">
         <v>230</v>
       </c>
-      <c r="H59" s="64"/>
-      <c r="I59" s="64"/>
-      <c r="J59" s="64"/>
-      <c r="K59" s="64"/>
-      <c r="L59" s="64"/>
-      <c r="M59" s="64"/>
-      <c r="N59" s="64"/>
-      <c r="O59" s="65"/>
+      <c r="H59" s="59"/>
+      <c r="I59" s="59"/>
+      <c r="J59" s="59"/>
+      <c r="K59" s="59"/>
+      <c r="L59" s="59"/>
+      <c r="M59" s="59"/>
+      <c r="N59" s="59"/>
+      <c r="O59" s="60"/>
       <c r="P59" s="27"/>
       <c r="Q59" s="27"/>
     </row>
@@ -2892,17 +2892,17 @@
       <c r="D60" s="28"/>
       <c r="E60" s="28"/>
       <c r="F60" s="28"/>
-      <c r="G60" s="64" t="s">
+      <c r="G60" s="59" t="s">
         <v>229</v>
       </c>
-      <c r="H60" s="64"/>
-      <c r="I60" s="64"/>
-      <c r="J60" s="64"/>
-      <c r="K60" s="64"/>
-      <c r="L60" s="64"/>
-      <c r="M60" s="64"/>
-      <c r="N60" s="64"/>
-      <c r="O60" s="65"/>
+      <c r="H60" s="59"/>
+      <c r="I60" s="59"/>
+      <c r="J60" s="59"/>
+      <c r="K60" s="59"/>
+      <c r="L60" s="59"/>
+      <c r="M60" s="59"/>
+      <c r="N60" s="59"/>
+      <c r="O60" s="60"/>
       <c r="P60" s="27"/>
       <c r="Q60" s="27"/>
     </row>
@@ -2911,18 +2911,18 @@
       <c r="C61" s="28"/>
       <c r="D61" s="28"/>
       <c r="E61" s="28"/>
-      <c r="F61" s="64" t="s">
+      <c r="F61" s="59" t="s">
         <v>231</v>
       </c>
-      <c r="G61" s="64"/>
-      <c r="H61" s="64"/>
-      <c r="I61" s="64"/>
-      <c r="J61" s="64"/>
-      <c r="K61" s="64"/>
-      <c r="L61" s="64"/>
-      <c r="M61" s="64"/>
-      <c r="N61" s="64"/>
-      <c r="O61" s="65"/>
+      <c r="G61" s="59"/>
+      <c r="H61" s="59"/>
+      <c r="I61" s="59"/>
+      <c r="J61" s="59"/>
+      <c r="K61" s="59"/>
+      <c r="L61" s="59"/>
+      <c r="M61" s="59"/>
+      <c r="N61" s="59"/>
+      <c r="O61" s="60"/>
       <c r="P61" s="27"/>
       <c r="Q61" s="27"/>
     </row>
@@ -2930,19 +2930,19 @@
       <c r="B62" s="23"/>
       <c r="C62" s="28"/>
       <c r="D62" s="28"/>
-      <c r="E62" s="64" t="s">
+      <c r="E62" s="59" t="s">
         <v>232</v>
       </c>
-      <c r="F62" s="64"/>
-      <c r="G62" s="64"/>
-      <c r="H62" s="64"/>
-      <c r="I62" s="64"/>
-      <c r="J62" s="64"/>
-      <c r="K62" s="64"/>
-      <c r="L62" s="64"/>
-      <c r="M62" s="64"/>
-      <c r="N62" s="64"/>
-      <c r="O62" s="65"/>
+      <c r="F62" s="59"/>
+      <c r="G62" s="59"/>
+      <c r="H62" s="59"/>
+      <c r="I62" s="59"/>
+      <c r="J62" s="59"/>
+      <c r="K62" s="59"/>
+      <c r="L62" s="59"/>
+      <c r="M62" s="59"/>
+      <c r="N62" s="59"/>
+      <c r="O62" s="60"/>
       <c r="P62" s="27"/>
       <c r="Q62" s="27"/>
     </row>
@@ -2950,19 +2950,19 @@
       <c r="B63" s="23"/>
       <c r="C63" s="28"/>
       <c r="D63" s="28"/>
-      <c r="E63" s="64" t="s">
+      <c r="E63" s="59" t="s">
         <v>233</v>
       </c>
-      <c r="F63" s="64"/>
-      <c r="G63" s="64"/>
-      <c r="H63" s="64"/>
-      <c r="I63" s="64"/>
-      <c r="J63" s="64"/>
-      <c r="K63" s="64"/>
-      <c r="L63" s="64"/>
-      <c r="M63" s="64"/>
-      <c r="N63" s="64"/>
-      <c r="O63" s="65"/>
+      <c r="F63" s="59"/>
+      <c r="G63" s="59"/>
+      <c r="H63" s="59"/>
+      <c r="I63" s="59"/>
+      <c r="J63" s="59"/>
+      <c r="K63" s="59"/>
+      <c r="L63" s="59"/>
+      <c r="M63" s="59"/>
+      <c r="N63" s="59"/>
+      <c r="O63" s="60"/>
       <c r="P63" s="27"/>
       <c r="Q63" s="27"/>
     </row>
@@ -2971,126 +2971,126 @@
       <c r="C64" s="24"/>
       <c r="D64" s="24"/>
       <c r="E64" s="24"/>
-      <c r="F64" s="32" t="s">
+      <c r="F64" s="52" t="s">
         <v>234</v>
       </c>
-      <c r="G64" s="32"/>
-      <c r="H64" s="32"/>
-      <c r="I64" s="32"/>
-      <c r="J64" s="32"/>
-      <c r="K64" s="32"/>
-      <c r="L64" s="32"/>
-      <c r="M64" s="32"/>
-      <c r="N64" s="32"/>
-      <c r="O64" s="33"/>
+      <c r="G64" s="52"/>
+      <c r="H64" s="52"/>
+      <c r="I64" s="52"/>
+      <c r="J64" s="52"/>
+      <c r="K64" s="52"/>
+      <c r="L64" s="52"/>
+      <c r="M64" s="52"/>
+      <c r="N64" s="52"/>
+      <c r="O64" s="53"/>
     </row>
     <row r="65" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B65" s="23"/>
       <c r="C65" s="24"/>
       <c r="D65" s="24"/>
-      <c r="E65" s="32" t="s">
+      <c r="E65" s="52" t="s">
         <v>232</v>
       </c>
-      <c r="F65" s="32"/>
-      <c r="G65" s="32"/>
-      <c r="H65" s="32"/>
-      <c r="I65" s="32"/>
-      <c r="J65" s="32"/>
-      <c r="K65" s="32"/>
-      <c r="L65" s="32"/>
-      <c r="M65" s="32"/>
-      <c r="N65" s="32"/>
-      <c r="O65" s="33"/>
+      <c r="F65" s="52"/>
+      <c r="G65" s="52"/>
+      <c r="H65" s="52"/>
+      <c r="I65" s="52"/>
+      <c r="J65" s="52"/>
+      <c r="K65" s="52"/>
+      <c r="L65" s="52"/>
+      <c r="M65" s="52"/>
+      <c r="N65" s="52"/>
+      <c r="O65" s="53"/>
     </row>
     <row r="66" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B66" s="19"/>
       <c r="C66" s="20"/>
-      <c r="D66" s="60" t="s">
+      <c r="D66" s="61" t="s">
         <v>235</v>
       </c>
-      <c r="E66" s="60"/>
-      <c r="F66" s="60"/>
-      <c r="G66" s="60"/>
-      <c r="H66" s="60"/>
-      <c r="I66" s="60"/>
-      <c r="J66" s="60"/>
-      <c r="K66" s="60"/>
-      <c r="L66" s="60"/>
-      <c r="M66" s="60"/>
-      <c r="N66" s="60"/>
-      <c r="O66" s="61"/>
+      <c r="E66" s="61"/>
+      <c r="F66" s="61"/>
+      <c r="G66" s="61"/>
+      <c r="H66" s="61"/>
+      <c r="I66" s="61"/>
+      <c r="J66" s="61"/>
+      <c r="K66" s="61"/>
+      <c r="L66" s="61"/>
+      <c r="M66" s="61"/>
+      <c r="N66" s="61"/>
+      <c r="O66" s="62"/>
     </row>
     <row r="67" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B67" s="19"/>
-      <c r="C67" s="60" t="s">
+      <c r="C67" s="61" t="s">
         <v>210</v>
       </c>
-      <c r="D67" s="60"/>
-      <c r="E67" s="60"/>
-      <c r="F67" s="60"/>
-      <c r="G67" s="60"/>
-      <c r="H67" s="60"/>
-      <c r="I67" s="60"/>
-      <c r="J67" s="60"/>
-      <c r="K67" s="60"/>
-      <c r="L67" s="60"/>
-      <c r="M67" s="60"/>
-      <c r="N67" s="60"/>
-      <c r="O67" s="61"/>
+      <c r="D67" s="61"/>
+      <c r="E67" s="61"/>
+      <c r="F67" s="61"/>
+      <c r="G67" s="61"/>
+      <c r="H67" s="61"/>
+      <c r="I67" s="61"/>
+      <c r="J67" s="61"/>
+      <c r="K67" s="61"/>
+      <c r="L67" s="61"/>
+      <c r="M67" s="61"/>
+      <c r="N67" s="61"/>
+      <c r="O67" s="62"/>
     </row>
     <row r="68" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B68" s="19"/>
-      <c r="C68" s="60" t="s">
+      <c r="C68" s="61" t="s">
         <v>211</v>
       </c>
-      <c r="D68" s="60"/>
-      <c r="E68" s="60"/>
-      <c r="F68" s="60"/>
-      <c r="G68" s="60"/>
-      <c r="H68" s="60"/>
-      <c r="I68" s="60"/>
-      <c r="J68" s="60"/>
-      <c r="K68" s="60"/>
-      <c r="L68" s="60"/>
-      <c r="M68" s="60"/>
-      <c r="N68" s="60"/>
-      <c r="O68" s="61"/>
+      <c r="D68" s="61"/>
+      <c r="E68" s="61"/>
+      <c r="F68" s="61"/>
+      <c r="G68" s="61"/>
+      <c r="H68" s="61"/>
+      <c r="I68" s="61"/>
+      <c r="J68" s="61"/>
+      <c r="K68" s="61"/>
+      <c r="L68" s="61"/>
+      <c r="M68" s="61"/>
+      <c r="N68" s="61"/>
+      <c r="O68" s="62"/>
     </row>
     <row r="69" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B69" s="19"/>
       <c r="C69" s="20"/>
-      <c r="D69" s="60" t="s">
+      <c r="D69" s="61" t="s">
         <v>236</v>
       </c>
-      <c r="E69" s="60"/>
-      <c r="F69" s="60"/>
-      <c r="G69" s="60"/>
-      <c r="H69" s="60"/>
-      <c r="I69" s="60"/>
-      <c r="J69" s="60"/>
-      <c r="K69" s="60"/>
-      <c r="L69" s="60"/>
-      <c r="M69" s="60"/>
-      <c r="N69" s="60"/>
-      <c r="O69" s="61"/>
+      <c r="E69" s="61"/>
+      <c r="F69" s="61"/>
+      <c r="G69" s="61"/>
+      <c r="H69" s="61"/>
+      <c r="I69" s="61"/>
+      <c r="J69" s="61"/>
+      <c r="K69" s="61"/>
+      <c r="L69" s="61"/>
+      <c r="M69" s="61"/>
+      <c r="N69" s="61"/>
+      <c r="O69" s="62"/>
     </row>
     <row r="70" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B70" s="19"/>
       <c r="C70" s="20"/>
-      <c r="D70" s="60" t="s">
+      <c r="D70" s="61" t="s">
         <v>237</v>
       </c>
-      <c r="E70" s="60"/>
-      <c r="F70" s="60"/>
-      <c r="G70" s="60"/>
-      <c r="H70" s="60"/>
-      <c r="I70" s="60"/>
-      <c r="J70" s="60"/>
-      <c r="K70" s="60"/>
-      <c r="L70" s="60"/>
-      <c r="M70" s="60"/>
-      <c r="N70" s="60"/>
-      <c r="O70" s="61"/>
+      <c r="E70" s="61"/>
+      <c r="F70" s="61"/>
+      <c r="G70" s="61"/>
+      <c r="H70" s="61"/>
+      <c r="I70" s="61"/>
+      <c r="J70" s="61"/>
+      <c r="K70" s="61"/>
+      <c r="L70" s="61"/>
+      <c r="M70" s="61"/>
+      <c r="N70" s="61"/>
+      <c r="O70" s="62"/>
     </row>
     <row r="71" spans="2:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B71" s="19"/>
@@ -3113,92 +3113,92 @@
     <row r="72" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B72" s="19"/>
       <c r="C72" s="20"/>
-      <c r="D72" s="60" t="s">
+      <c r="D72" s="61" t="s">
         <v>214</v>
       </c>
-      <c r="E72" s="60"/>
-      <c r="F72" s="60"/>
-      <c r="G72" s="60"/>
-      <c r="H72" s="60"/>
-      <c r="I72" s="60"/>
-      <c r="J72" s="60"/>
-      <c r="K72" s="60"/>
-      <c r="L72" s="60"/>
-      <c r="M72" s="60"/>
-      <c r="N72" s="60"/>
-      <c r="O72" s="61"/>
+      <c r="E72" s="61"/>
+      <c r="F72" s="61"/>
+      <c r="G72" s="61"/>
+      <c r="H72" s="61"/>
+      <c r="I72" s="61"/>
+      <c r="J72" s="61"/>
+      <c r="K72" s="61"/>
+      <c r="L72" s="61"/>
+      <c r="M72" s="61"/>
+      <c r="N72" s="61"/>
+      <c r="O72" s="62"/>
     </row>
     <row r="73" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B73" s="19"/>
       <c r="C73" s="20"/>
-      <c r="D73" s="60" t="s">
+      <c r="D73" s="61" t="s">
         <v>236</v>
       </c>
-      <c r="E73" s="60"/>
-      <c r="F73" s="60"/>
-      <c r="G73" s="60"/>
-      <c r="H73" s="60"/>
-      <c r="I73" s="60"/>
-      <c r="J73" s="60"/>
-      <c r="K73" s="60"/>
-      <c r="L73" s="60"/>
-      <c r="M73" s="60"/>
-      <c r="N73" s="60"/>
-      <c r="O73" s="61"/>
+      <c r="E73" s="61"/>
+      <c r="F73" s="61"/>
+      <c r="G73" s="61"/>
+      <c r="H73" s="61"/>
+      <c r="I73" s="61"/>
+      <c r="J73" s="61"/>
+      <c r="K73" s="61"/>
+      <c r="L73" s="61"/>
+      <c r="M73" s="61"/>
+      <c r="N73" s="61"/>
+      <c r="O73" s="62"/>
     </row>
     <row r="74" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B74" s="19"/>
       <c r="C74" s="20"/>
-      <c r="D74" s="62" t="s">
+      <c r="D74" s="63" t="s">
         <v>245</v>
       </c>
-      <c r="E74" s="62"/>
-      <c r="F74" s="62"/>
-      <c r="G74" s="62"/>
-      <c r="H74" s="62"/>
-      <c r="I74" s="62"/>
-      <c r="J74" s="62"/>
-      <c r="K74" s="62"/>
-      <c r="L74" s="62"/>
-      <c r="M74" s="62"/>
-      <c r="N74" s="62"/>
-      <c r="O74" s="63"/>
+      <c r="E74" s="63"/>
+      <c r="F74" s="63"/>
+      <c r="G74" s="63"/>
+      <c r="H74" s="63"/>
+      <c r="I74" s="63"/>
+      <c r="J74" s="63"/>
+      <c r="K74" s="63"/>
+      <c r="L74" s="63"/>
+      <c r="M74" s="63"/>
+      <c r="N74" s="63"/>
+      <c r="O74" s="64"/>
     </row>
     <row r="75" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B75" s="19"/>
       <c r="C75" s="20"/>
       <c r="D75" s="30"/>
-      <c r="E75" s="62" t="s">
+      <c r="E75" s="63" t="s">
         <v>208</v>
       </c>
-      <c r="F75" s="62"/>
-      <c r="G75" s="62"/>
-      <c r="H75" s="62"/>
-      <c r="I75" s="62"/>
-      <c r="J75" s="62"/>
-      <c r="K75" s="62"/>
-      <c r="L75" s="62"/>
-      <c r="M75" s="62"/>
-      <c r="N75" s="62"/>
-      <c r="O75" s="63"/>
+      <c r="F75" s="63"/>
+      <c r="G75" s="63"/>
+      <c r="H75" s="63"/>
+      <c r="I75" s="63"/>
+      <c r="J75" s="63"/>
+      <c r="K75" s="63"/>
+      <c r="L75" s="63"/>
+      <c r="M75" s="63"/>
+      <c r="N75" s="63"/>
+      <c r="O75" s="64"/>
     </row>
     <row r="76" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B76" s="19"/>
       <c r="C76" s="20"/>
       <c r="D76" s="30"/>
       <c r="E76" s="30"/>
-      <c r="F76" s="62" t="s">
+      <c r="F76" s="63" t="s">
         <v>221</v>
       </c>
-      <c r="G76" s="62"/>
-      <c r="H76" s="62"/>
-      <c r="I76" s="62"/>
-      <c r="J76" s="62"/>
-      <c r="K76" s="62"/>
-      <c r="L76" s="62"/>
-      <c r="M76" s="62"/>
-      <c r="N76" s="62"/>
-      <c r="O76" s="63"/>
+      <c r="G76" s="63"/>
+      <c r="H76" s="63"/>
+      <c r="I76" s="63"/>
+      <c r="J76" s="63"/>
+      <c r="K76" s="63"/>
+      <c r="L76" s="63"/>
+      <c r="M76" s="63"/>
+      <c r="N76" s="63"/>
+      <c r="O76" s="64"/>
     </row>
     <row r="77" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B77" s="19"/>
@@ -3206,17 +3206,17 @@
       <c r="D77" s="30"/>
       <c r="E77" s="30"/>
       <c r="F77" s="30"/>
-      <c r="G77" s="62" t="s">
+      <c r="G77" s="63" t="s">
         <v>246</v>
       </c>
-      <c r="H77" s="62"/>
-      <c r="I77" s="62"/>
-      <c r="J77" s="62"/>
-      <c r="K77" s="62"/>
-      <c r="L77" s="62"/>
-      <c r="M77" s="62"/>
-      <c r="N77" s="62"/>
-      <c r="O77" s="63"/>
+      <c r="H77" s="63"/>
+      <c r="I77" s="63"/>
+      <c r="J77" s="63"/>
+      <c r="K77" s="63"/>
+      <c r="L77" s="63"/>
+      <c r="M77" s="63"/>
+      <c r="N77" s="63"/>
+      <c r="O77" s="64"/>
     </row>
     <row r="78" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B78" s="19"/>
@@ -3224,17 +3224,17 @@
       <c r="D78" s="30"/>
       <c r="E78" s="30"/>
       <c r="F78" s="30"/>
-      <c r="G78" s="62" t="s">
+      <c r="G78" s="63" t="s">
         <v>247</v>
       </c>
-      <c r="H78" s="62"/>
-      <c r="I78" s="62"/>
-      <c r="J78" s="62"/>
-      <c r="K78" s="62"/>
-      <c r="L78" s="62"/>
-      <c r="M78" s="62"/>
-      <c r="N78" s="62"/>
-      <c r="O78" s="63"/>
+      <c r="H78" s="63"/>
+      <c r="I78" s="63"/>
+      <c r="J78" s="63"/>
+      <c r="K78" s="63"/>
+      <c r="L78" s="63"/>
+      <c r="M78" s="63"/>
+      <c r="N78" s="63"/>
+      <c r="O78" s="64"/>
     </row>
     <row r="79" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B79" s="19"/>
@@ -3242,17 +3242,17 @@
       <c r="D79" s="30"/>
       <c r="E79" s="30"/>
       <c r="F79" s="30"/>
-      <c r="G79" s="62" t="s">
+      <c r="G79" s="63" t="s">
         <v>248</v>
       </c>
-      <c r="H79" s="62"/>
-      <c r="I79" s="62"/>
-      <c r="J79" s="62"/>
-      <c r="K79" s="62"/>
-      <c r="L79" s="62"/>
-      <c r="M79" s="62"/>
-      <c r="N79" s="62"/>
-      <c r="O79" s="63"/>
+      <c r="H79" s="63"/>
+      <c r="I79" s="63"/>
+      <c r="J79" s="63"/>
+      <c r="K79" s="63"/>
+      <c r="L79" s="63"/>
+      <c r="M79" s="63"/>
+      <c r="N79" s="63"/>
+      <c r="O79" s="64"/>
     </row>
     <row r="80" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B80" s="19"/>
@@ -3260,17 +3260,17 @@
       <c r="D80" s="30"/>
       <c r="E80" s="30"/>
       <c r="F80" s="30"/>
-      <c r="G80" s="62" t="s">
+      <c r="G80" s="63" t="s">
         <v>223</v>
       </c>
-      <c r="H80" s="62"/>
-      <c r="I80" s="62"/>
-      <c r="J80" s="62"/>
-      <c r="K80" s="62"/>
-      <c r="L80" s="62"/>
-      <c r="M80" s="62"/>
-      <c r="N80" s="62"/>
-      <c r="O80" s="63"/>
+      <c r="H80" s="63"/>
+      <c r="I80" s="63"/>
+      <c r="J80" s="63"/>
+      <c r="K80" s="63"/>
+      <c r="L80" s="63"/>
+      <c r="M80" s="63"/>
+      <c r="N80" s="63"/>
+      <c r="O80" s="64"/>
     </row>
     <row r="81" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B81" s="19"/>
@@ -3279,16 +3279,16 @@
       <c r="E81" s="30"/>
       <c r="F81" s="30"/>
       <c r="G81" s="30"/>
-      <c r="H81" s="62" t="s">
+      <c r="H81" s="63" t="s">
         <v>224</v>
       </c>
-      <c r="I81" s="62"/>
-      <c r="J81" s="62"/>
-      <c r="K81" s="62"/>
-      <c r="L81" s="62"/>
-      <c r="M81" s="62"/>
-      <c r="N81" s="62"/>
-      <c r="O81" s="63"/>
+      <c r="I81" s="63"/>
+      <c r="J81" s="63"/>
+      <c r="K81" s="63"/>
+      <c r="L81" s="63"/>
+      <c r="M81" s="63"/>
+      <c r="N81" s="63"/>
+      <c r="O81" s="64"/>
     </row>
     <row r="82" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B82" s="19"/>
@@ -3298,15 +3298,15 @@
       <c r="F82" s="30"/>
       <c r="G82" s="30"/>
       <c r="H82" s="30"/>
-      <c r="I82" s="62" t="s">
+      <c r="I82" s="63" t="s">
         <v>225</v>
       </c>
-      <c r="J82" s="62"/>
-      <c r="K82" s="62"/>
-      <c r="L82" s="62"/>
-      <c r="M82" s="62"/>
-      <c r="N82" s="62"/>
-      <c r="O82" s="63"/>
+      <c r="J82" s="63"/>
+      <c r="K82" s="63"/>
+      <c r="L82" s="63"/>
+      <c r="M82" s="63"/>
+      <c r="N82" s="63"/>
+      <c r="O82" s="64"/>
     </row>
     <row r="83" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B83" s="19"/>
@@ -3316,15 +3316,15 @@
       <c r="F83" s="30"/>
       <c r="G83" s="30"/>
       <c r="H83" s="30"/>
-      <c r="I83" s="62" t="s">
+      <c r="I83" s="63" t="s">
         <v>249</v>
       </c>
-      <c r="J83" s="62"/>
-      <c r="K83" s="62"/>
-      <c r="L83" s="62"/>
-      <c r="M83" s="62"/>
-      <c r="N83" s="62"/>
-      <c r="O83" s="63"/>
+      <c r="J83" s="63"/>
+      <c r="K83" s="63"/>
+      <c r="L83" s="63"/>
+      <c r="M83" s="63"/>
+      <c r="N83" s="63"/>
+      <c r="O83" s="64"/>
     </row>
     <row r="84" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B84" s="19"/>
@@ -3334,15 +3334,15 @@
       <c r="F84" s="30"/>
       <c r="G84" s="30"/>
       <c r="H84" s="30"/>
-      <c r="I84" s="62" t="s">
+      <c r="I84" s="63" t="s">
         <v>227</v>
       </c>
-      <c r="J84" s="62"/>
-      <c r="K84" s="62"/>
-      <c r="L84" s="62"/>
-      <c r="M84" s="62"/>
-      <c r="N84" s="62"/>
-      <c r="O84" s="63"/>
+      <c r="J84" s="63"/>
+      <c r="K84" s="63"/>
+      <c r="L84" s="63"/>
+      <c r="M84" s="63"/>
+      <c r="N84" s="63"/>
+      <c r="O84" s="64"/>
     </row>
     <row r="85" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B85" s="19"/>
@@ -3352,15 +3352,15 @@
       <c r="F85" s="30"/>
       <c r="G85" s="30"/>
       <c r="H85" s="30"/>
-      <c r="I85" s="62" t="s">
+      <c r="I85" s="63" t="s">
         <v>249</v>
       </c>
-      <c r="J85" s="62"/>
-      <c r="K85" s="62"/>
-      <c r="L85" s="62"/>
-      <c r="M85" s="62"/>
-      <c r="N85" s="62"/>
-      <c r="O85" s="63"/>
+      <c r="J85" s="63"/>
+      <c r="K85" s="63"/>
+      <c r="L85" s="63"/>
+      <c r="M85" s="63"/>
+      <c r="N85" s="63"/>
+      <c r="O85" s="64"/>
     </row>
     <row r="86" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B86" s="19"/>
@@ -3370,15 +3370,15 @@
       <c r="F86" s="30"/>
       <c r="G86" s="30"/>
       <c r="H86" s="30"/>
-      <c r="I86" s="62" t="s">
+      <c r="I86" s="63" t="s">
         <v>228</v>
       </c>
-      <c r="J86" s="62"/>
-      <c r="K86" s="62"/>
-      <c r="L86" s="62"/>
-      <c r="M86" s="62"/>
-      <c r="N86" s="62"/>
-      <c r="O86" s="63"/>
+      <c r="J86" s="63"/>
+      <c r="K86" s="63"/>
+      <c r="L86" s="63"/>
+      <c r="M86" s="63"/>
+      <c r="N86" s="63"/>
+      <c r="O86" s="64"/>
     </row>
     <row r="87" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B87" s="19"/>
@@ -3388,15 +3388,15 @@
       <c r="F87" s="30"/>
       <c r="G87" s="30"/>
       <c r="H87" s="30"/>
-      <c r="I87" s="62" t="s">
+      <c r="I87" s="63" t="s">
         <v>250</v>
       </c>
-      <c r="J87" s="62"/>
-      <c r="K87" s="62"/>
-      <c r="L87" s="62"/>
-      <c r="M87" s="62"/>
-      <c r="N87" s="62"/>
-      <c r="O87" s="63"/>
+      <c r="J87" s="63"/>
+      <c r="K87" s="63"/>
+      <c r="L87" s="63"/>
+      <c r="M87" s="63"/>
+      <c r="N87" s="63"/>
+      <c r="O87" s="64"/>
     </row>
     <row r="88" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B88" s="19"/>
@@ -3406,15 +3406,15 @@
       <c r="F88" s="30"/>
       <c r="G88" s="30"/>
       <c r="H88" s="30"/>
-      <c r="I88" s="62" t="s">
+      <c r="I88" s="63" t="s">
         <v>230</v>
       </c>
-      <c r="J88" s="62"/>
-      <c r="K88" s="62"/>
-      <c r="L88" s="62"/>
-      <c r="M88" s="62"/>
-      <c r="N88" s="62"/>
-      <c r="O88" s="63"/>
+      <c r="J88" s="63"/>
+      <c r="K88" s="63"/>
+      <c r="L88" s="63"/>
+      <c r="M88" s="63"/>
+      <c r="N88" s="63"/>
+      <c r="O88" s="64"/>
     </row>
     <row r="89" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B89" s="19"/>
@@ -3424,15 +3424,15 @@
       <c r="F89" s="30"/>
       <c r="G89" s="30"/>
       <c r="H89" s="30"/>
-      <c r="I89" s="62" t="s">
+      <c r="I89" s="63" t="s">
         <v>229</v>
       </c>
-      <c r="J89" s="62"/>
-      <c r="K89" s="62"/>
-      <c r="L89" s="62"/>
-      <c r="M89" s="62"/>
-      <c r="N89" s="62"/>
-      <c r="O89" s="63"/>
+      <c r="J89" s="63"/>
+      <c r="K89" s="63"/>
+      <c r="L89" s="63"/>
+      <c r="M89" s="63"/>
+      <c r="N89" s="63"/>
+      <c r="O89" s="64"/>
     </row>
     <row r="90" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B90" s="19"/>
@@ -3441,16 +3441,16 @@
       <c r="E90" s="30"/>
       <c r="F90" s="30"/>
       <c r="G90" s="30"/>
-      <c r="H90" s="62" t="s">
+      <c r="H90" s="63" t="s">
         <v>231</v>
       </c>
-      <c r="I90" s="62"/>
-      <c r="J90" s="62"/>
-      <c r="K90" s="62"/>
-      <c r="L90" s="62"/>
-      <c r="M90" s="62"/>
-      <c r="N90" s="62"/>
-      <c r="O90" s="63"/>
+      <c r="I90" s="63"/>
+      <c r="J90" s="63"/>
+      <c r="K90" s="63"/>
+      <c r="L90" s="63"/>
+      <c r="M90" s="63"/>
+      <c r="N90" s="63"/>
+      <c r="O90" s="64"/>
     </row>
     <row r="91" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B91" s="19"/>
@@ -3458,17 +3458,17 @@
       <c r="D91" s="30"/>
       <c r="E91" s="30"/>
       <c r="F91" s="30"/>
-      <c r="G91" s="62" t="s">
+      <c r="G91" s="63" t="s">
         <v>232</v>
       </c>
-      <c r="H91" s="62"/>
-      <c r="I91" s="62"/>
-      <c r="J91" s="62"/>
-      <c r="K91" s="62"/>
-      <c r="L91" s="62"/>
-      <c r="M91" s="62"/>
-      <c r="N91" s="62"/>
-      <c r="O91" s="63"/>
+      <c r="H91" s="63"/>
+      <c r="I91" s="63"/>
+      <c r="J91" s="63"/>
+      <c r="K91" s="63"/>
+      <c r="L91" s="63"/>
+      <c r="M91" s="63"/>
+      <c r="N91" s="63"/>
+      <c r="O91" s="64"/>
     </row>
     <row r="92" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B92" s="19"/>
@@ -3476,17 +3476,17 @@
       <c r="D92" s="30"/>
       <c r="E92" s="30"/>
       <c r="F92" s="30"/>
-      <c r="G92" s="62" t="s">
+      <c r="G92" s="63" t="s">
         <v>233</v>
       </c>
-      <c r="H92" s="62"/>
-      <c r="I92" s="62"/>
-      <c r="J92" s="62"/>
-      <c r="K92" s="62"/>
-      <c r="L92" s="62"/>
-      <c r="M92" s="62"/>
-      <c r="N92" s="62"/>
-      <c r="O92" s="63"/>
+      <c r="H92" s="63"/>
+      <c r="I92" s="63"/>
+      <c r="J92" s="63"/>
+      <c r="K92" s="63"/>
+      <c r="L92" s="63"/>
+      <c r="M92" s="63"/>
+      <c r="N92" s="63"/>
+      <c r="O92" s="64"/>
     </row>
     <row r="93" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B93" s="19"/>
@@ -3495,16 +3495,16 @@
       <c r="E93" s="30"/>
       <c r="F93" s="30"/>
       <c r="G93" s="30"/>
-      <c r="H93" s="62" t="s">
+      <c r="H93" s="63" t="s">
         <v>251</v>
       </c>
-      <c r="I93" s="62"/>
-      <c r="J93" s="62"/>
-      <c r="K93" s="62"/>
-      <c r="L93" s="62"/>
-      <c r="M93" s="62"/>
-      <c r="N93" s="62"/>
-      <c r="O93" s="63"/>
+      <c r="I93" s="63"/>
+      <c r="J93" s="63"/>
+      <c r="K93" s="63"/>
+      <c r="L93" s="63"/>
+      <c r="M93" s="63"/>
+      <c r="N93" s="63"/>
+      <c r="O93" s="64"/>
     </row>
     <row r="94" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B94" s="19"/>
@@ -3512,17 +3512,17 @@
       <c r="D94" s="30"/>
       <c r="E94" s="30"/>
       <c r="F94" s="30"/>
-      <c r="G94" s="62" t="s">
+      <c r="G94" s="63" t="s">
         <v>232</v>
       </c>
-      <c r="H94" s="62"/>
-      <c r="I94" s="62"/>
-      <c r="J94" s="62"/>
-      <c r="K94" s="62"/>
-      <c r="L94" s="62"/>
-      <c r="M94" s="62"/>
-      <c r="N94" s="62"/>
-      <c r="O94" s="63"/>
+      <c r="H94" s="63"/>
+      <c r="I94" s="63"/>
+      <c r="J94" s="63"/>
+      <c r="K94" s="63"/>
+      <c r="L94" s="63"/>
+      <c r="M94" s="63"/>
+      <c r="N94" s="63"/>
+      <c r="O94" s="64"/>
     </row>
     <row r="95" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B95" s="19"/>
@@ -3548,53 +3548,53 @@
       <c r="D96" s="30"/>
       <c r="E96" s="30"/>
       <c r="F96" s="30"/>
-      <c r="G96" s="62" t="s">
+      <c r="G96" s="63" t="s">
         <v>232</v>
       </c>
-      <c r="H96" s="62"/>
-      <c r="I96" s="62"/>
-      <c r="J96" s="62"/>
-      <c r="K96" s="62"/>
-      <c r="L96" s="62"/>
-      <c r="M96" s="62"/>
-      <c r="N96" s="62"/>
-      <c r="O96" s="63"/>
+      <c r="H96" s="63"/>
+      <c r="I96" s="63"/>
+      <c r="J96" s="63"/>
+      <c r="K96" s="63"/>
+      <c r="L96" s="63"/>
+      <c r="M96" s="63"/>
+      <c r="N96" s="63"/>
+      <c r="O96" s="64"/>
     </row>
     <row r="97" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B97" s="19"/>
       <c r="C97" s="20"/>
       <c r="D97" s="30"/>
       <c r="E97" s="30"/>
-      <c r="F97" s="62" t="s">
+      <c r="F97" s="63" t="s">
         <v>235</v>
       </c>
-      <c r="G97" s="62"/>
-      <c r="H97" s="62"/>
-      <c r="I97" s="62"/>
-      <c r="J97" s="62"/>
-      <c r="K97" s="62"/>
-      <c r="L97" s="62"/>
-      <c r="M97" s="62"/>
-      <c r="N97" s="62"/>
-      <c r="O97" s="63"/>
+      <c r="G97" s="63"/>
+      <c r="H97" s="63"/>
+      <c r="I97" s="63"/>
+      <c r="J97" s="63"/>
+      <c r="K97" s="63"/>
+      <c r="L97" s="63"/>
+      <c r="M97" s="63"/>
+      <c r="N97" s="63"/>
+      <c r="O97" s="64"/>
     </row>
     <row r="98" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B98" s="19"/>
       <c r="C98" s="20"/>
       <c r="D98" s="30"/>
       <c r="E98" s="30"/>
-      <c r="F98" s="62" t="s">
+      <c r="F98" s="63" t="s">
         <v>238</v>
       </c>
-      <c r="G98" s="62"/>
-      <c r="H98" s="62"/>
-      <c r="I98" s="62"/>
-      <c r="J98" s="62"/>
-      <c r="K98" s="62"/>
-      <c r="L98" s="62"/>
-      <c r="M98" s="62"/>
-      <c r="N98" s="62"/>
-      <c r="O98" s="63"/>
+      <c r="G98" s="63"/>
+      <c r="H98" s="63"/>
+      <c r="I98" s="63"/>
+      <c r="J98" s="63"/>
+      <c r="K98" s="63"/>
+      <c r="L98" s="63"/>
+      <c r="M98" s="63"/>
+      <c r="N98" s="63"/>
+      <c r="O98" s="64"/>
     </row>
     <row r="99" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B99" s="19"/>
@@ -3602,17 +3602,17 @@
       <c r="D99" s="30"/>
       <c r="E99" s="30"/>
       <c r="F99" s="30"/>
-      <c r="G99" s="62" t="s">
+      <c r="G99" s="63" t="s">
         <v>239</v>
       </c>
-      <c r="H99" s="62"/>
-      <c r="I99" s="62"/>
-      <c r="J99" s="62"/>
-      <c r="K99" s="62"/>
-      <c r="L99" s="62"/>
-      <c r="M99" s="62"/>
-      <c r="N99" s="62"/>
-      <c r="O99" s="63"/>
+      <c r="H99" s="63"/>
+      <c r="I99" s="63"/>
+      <c r="J99" s="63"/>
+      <c r="K99" s="63"/>
+      <c r="L99" s="63"/>
+      <c r="M99" s="63"/>
+      <c r="N99" s="63"/>
+      <c r="O99" s="64"/>
     </row>
     <row r="100" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B100" s="19"/>
@@ -3621,16 +3621,16 @@
       <c r="E100" s="30"/>
       <c r="F100" s="30"/>
       <c r="G100" s="30"/>
-      <c r="H100" s="62" t="s">
+      <c r="H100" s="63" t="s">
         <v>253</v>
       </c>
-      <c r="I100" s="62"/>
-      <c r="J100" s="62"/>
-      <c r="K100" s="62"/>
-      <c r="L100" s="62"/>
-      <c r="M100" s="62"/>
-      <c r="N100" s="62"/>
-      <c r="O100" s="63"/>
+      <c r="I100" s="63"/>
+      <c r="J100" s="63"/>
+      <c r="K100" s="63"/>
+      <c r="L100" s="63"/>
+      <c r="M100" s="63"/>
+      <c r="N100" s="63"/>
+      <c r="O100" s="64"/>
     </row>
     <row r="101" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B101" s="19"/>
@@ -3640,15 +3640,15 @@
       <c r="F101" s="30"/>
       <c r="G101" s="30"/>
       <c r="H101" s="30"/>
-      <c r="I101" s="62" t="s">
+      <c r="I101" s="63" t="s">
         <v>240</v>
       </c>
-      <c r="J101" s="62"/>
-      <c r="K101" s="62"/>
-      <c r="L101" s="62"/>
-      <c r="M101" s="62"/>
-      <c r="N101" s="62"/>
-      <c r="O101" s="63"/>
+      <c r="J101" s="63"/>
+      <c r="K101" s="63"/>
+      <c r="L101" s="63"/>
+      <c r="M101" s="63"/>
+      <c r="N101" s="63"/>
+      <c r="O101" s="64"/>
     </row>
     <row r="102" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B102" s="19"/>
@@ -3657,16 +3657,16 @@
       <c r="E102" s="30"/>
       <c r="F102" s="30"/>
       <c r="G102" s="30"/>
-      <c r="H102" s="62" t="s">
+      <c r="H102" s="63" t="s">
         <v>241</v>
       </c>
-      <c r="I102" s="62"/>
-      <c r="J102" s="62"/>
-      <c r="K102" s="62"/>
-      <c r="L102" s="62"/>
-      <c r="M102" s="62"/>
-      <c r="N102" s="62"/>
-      <c r="O102" s="63"/>
+      <c r="I102" s="63"/>
+      <c r="J102" s="63"/>
+      <c r="K102" s="63"/>
+      <c r="L102" s="63"/>
+      <c r="M102" s="63"/>
+      <c r="N102" s="63"/>
+      <c r="O102" s="64"/>
     </row>
     <row r="103" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B103" s="19"/>
@@ -3674,17 +3674,17 @@
       <c r="D103" s="30"/>
       <c r="E103" s="30"/>
       <c r="F103" s="30"/>
-      <c r="G103" s="62" t="s">
+      <c r="G103" s="63" t="s">
         <v>242</v>
       </c>
-      <c r="H103" s="62"/>
-      <c r="I103" s="62"/>
-      <c r="J103" s="62"/>
-      <c r="K103" s="62"/>
-      <c r="L103" s="62"/>
-      <c r="M103" s="62"/>
-      <c r="N103" s="62"/>
-      <c r="O103" s="63"/>
+      <c r="H103" s="63"/>
+      <c r="I103" s="63"/>
+      <c r="J103" s="63"/>
+      <c r="K103" s="63"/>
+      <c r="L103" s="63"/>
+      <c r="M103" s="63"/>
+      <c r="N103" s="63"/>
+      <c r="O103" s="64"/>
     </row>
     <row r="104" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B104" s="19"/>
@@ -3692,17 +3692,17 @@
       <c r="D104" s="30"/>
       <c r="E104" s="30"/>
       <c r="F104" s="30"/>
-      <c r="G104" s="62" t="s">
+      <c r="G104" s="63" t="s">
         <v>239</v>
       </c>
-      <c r="H104" s="62"/>
-      <c r="I104" s="62"/>
-      <c r="J104" s="62"/>
-      <c r="K104" s="62"/>
-      <c r="L104" s="62"/>
-      <c r="M104" s="62"/>
-      <c r="N104" s="62"/>
-      <c r="O104" s="63"/>
+      <c r="H104" s="63"/>
+      <c r="I104" s="63"/>
+      <c r="J104" s="63"/>
+      <c r="K104" s="63"/>
+      <c r="L104" s="63"/>
+      <c r="M104" s="63"/>
+      <c r="N104" s="63"/>
+      <c r="O104" s="64"/>
     </row>
     <row r="105" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B105" s="19"/>
@@ -3711,16 +3711,16 @@
       <c r="E105" s="30"/>
       <c r="F105" s="30"/>
       <c r="G105" s="30"/>
-      <c r="H105" s="62" t="s">
+      <c r="H105" s="63" t="s">
         <v>253</v>
       </c>
-      <c r="I105" s="62"/>
-      <c r="J105" s="62"/>
-      <c r="K105" s="62"/>
-      <c r="L105" s="62"/>
-      <c r="M105" s="62"/>
-      <c r="N105" s="62"/>
-      <c r="O105" s="63"/>
+      <c r="I105" s="63"/>
+      <c r="J105" s="63"/>
+      <c r="K105" s="63"/>
+      <c r="L105" s="63"/>
+      <c r="M105" s="63"/>
+      <c r="N105" s="63"/>
+      <c r="O105" s="64"/>
     </row>
     <row r="106" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B106" s="19"/>
@@ -3730,15 +3730,15 @@
       <c r="F106" s="30"/>
       <c r="G106" s="30"/>
       <c r="H106" s="30"/>
-      <c r="I106" s="62" t="s">
+      <c r="I106" s="63" t="s">
         <v>243</v>
       </c>
-      <c r="J106" s="62"/>
-      <c r="K106" s="62"/>
-      <c r="L106" s="62"/>
-      <c r="M106" s="62"/>
-      <c r="N106" s="62"/>
-      <c r="O106" s="63"/>
+      <c r="J106" s="63"/>
+      <c r="K106" s="63"/>
+      <c r="L106" s="63"/>
+      <c r="M106" s="63"/>
+      <c r="N106" s="63"/>
+      <c r="O106" s="64"/>
     </row>
     <row r="107" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B107" s="19"/>
@@ -3747,16 +3747,16 @@
       <c r="E107" s="30"/>
       <c r="F107" s="30"/>
       <c r="G107" s="30"/>
-      <c r="H107" s="62" t="s">
+      <c r="H107" s="63" t="s">
         <v>241</v>
       </c>
-      <c r="I107" s="62"/>
-      <c r="J107" s="62"/>
-      <c r="K107" s="62"/>
-      <c r="L107" s="62"/>
-      <c r="M107" s="62"/>
-      <c r="N107" s="62"/>
-      <c r="O107" s="63"/>
+      <c r="I107" s="63"/>
+      <c r="J107" s="63"/>
+      <c r="K107" s="63"/>
+      <c r="L107" s="63"/>
+      <c r="M107" s="63"/>
+      <c r="N107" s="63"/>
+      <c r="O107" s="64"/>
     </row>
     <row r="108" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B108" s="19"/>
@@ -3764,199 +3764,186 @@
       <c r="D108" s="30"/>
       <c r="E108" s="30"/>
       <c r="F108" s="30"/>
-      <c r="G108" s="62" t="s">
+      <c r="G108" s="63" t="s">
         <v>242</v>
       </c>
-      <c r="H108" s="62"/>
-      <c r="I108" s="62"/>
-      <c r="J108" s="62"/>
-      <c r="K108" s="62"/>
-      <c r="L108" s="62"/>
-      <c r="M108" s="62"/>
-      <c r="N108" s="62"/>
-      <c r="O108" s="63"/>
+      <c r="H108" s="63"/>
+      <c r="I108" s="63"/>
+      <c r="J108" s="63"/>
+      <c r="K108" s="63"/>
+      <c r="L108" s="63"/>
+      <c r="M108" s="63"/>
+      <c r="N108" s="63"/>
+      <c r="O108" s="64"/>
     </row>
     <row r="109" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B109" s="19"/>
       <c r="C109" s="20"/>
       <c r="D109" s="30"/>
       <c r="E109" s="30"/>
-      <c r="F109" s="62" t="s">
+      <c r="F109" s="63" t="s">
         <v>244</v>
       </c>
-      <c r="G109" s="62"/>
-      <c r="H109" s="62"/>
-      <c r="I109" s="62"/>
-      <c r="J109" s="62"/>
-      <c r="K109" s="62"/>
-      <c r="L109" s="62"/>
-      <c r="M109" s="62"/>
-      <c r="N109" s="62"/>
-      <c r="O109" s="63"/>
+      <c r="G109" s="63"/>
+      <c r="H109" s="63"/>
+      <c r="I109" s="63"/>
+      <c r="J109" s="63"/>
+      <c r="K109" s="63"/>
+      <c r="L109" s="63"/>
+      <c r="M109" s="63"/>
+      <c r="N109" s="63"/>
+      <c r="O109" s="64"/>
     </row>
     <row r="110" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B110" s="19"/>
       <c r="C110" s="20"/>
       <c r="D110" s="30"/>
-      <c r="E110" s="62" t="s">
+      <c r="E110" s="63" t="s">
         <v>210</v>
       </c>
-      <c r="F110" s="62"/>
-      <c r="G110" s="62"/>
-      <c r="H110" s="62"/>
-      <c r="I110" s="62"/>
-      <c r="J110" s="62"/>
-      <c r="K110" s="62"/>
-      <c r="L110" s="62"/>
-      <c r="M110" s="62"/>
-      <c r="N110" s="62"/>
-      <c r="O110" s="63"/>
+      <c r="F110" s="63"/>
+      <c r="G110" s="63"/>
+      <c r="H110" s="63"/>
+      <c r="I110" s="63"/>
+      <c r="J110" s="63"/>
+      <c r="K110" s="63"/>
+      <c r="L110" s="63"/>
+      <c r="M110" s="63"/>
+      <c r="N110" s="63"/>
+      <c r="O110" s="64"/>
     </row>
     <row r="111" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B111" s="19"/>
       <c r="C111" s="20"/>
-      <c r="D111" s="62" t="s">
+      <c r="D111" s="63" t="s">
         <v>214</v>
       </c>
-      <c r="E111" s="62"/>
-      <c r="F111" s="62"/>
-      <c r="G111" s="62"/>
-      <c r="H111" s="62"/>
-      <c r="I111" s="62"/>
-      <c r="J111" s="62"/>
-      <c r="K111" s="62"/>
-      <c r="L111" s="62"/>
-      <c r="M111" s="62"/>
-      <c r="N111" s="62"/>
-      <c r="O111" s="63"/>
+      <c r="E111" s="63"/>
+      <c r="F111" s="63"/>
+      <c r="G111" s="63"/>
+      <c r="H111" s="63"/>
+      <c r="I111" s="63"/>
+      <c r="J111" s="63"/>
+      <c r="K111" s="63"/>
+      <c r="L111" s="63"/>
+      <c r="M111" s="63"/>
+      <c r="N111" s="63"/>
+      <c r="O111" s="64"/>
     </row>
     <row r="112" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B112" s="19"/>
       <c r="C112" s="20"/>
-      <c r="D112" s="60" t="s">
+      <c r="D112" s="61" t="s">
         <v>254</v>
       </c>
-      <c r="E112" s="60"/>
-      <c r="F112" s="60"/>
-      <c r="G112" s="60"/>
-      <c r="H112" s="60"/>
-      <c r="I112" s="60"/>
-      <c r="J112" s="60"/>
-      <c r="K112" s="60"/>
-      <c r="L112" s="60"/>
-      <c r="M112" s="60"/>
-      <c r="N112" s="60"/>
-      <c r="O112" s="61"/>
+      <c r="E112" s="61"/>
+      <c r="F112" s="61"/>
+      <c r="G112" s="61"/>
+      <c r="H112" s="61"/>
+      <c r="I112" s="61"/>
+      <c r="J112" s="61"/>
+      <c r="K112" s="61"/>
+      <c r="L112" s="61"/>
+      <c r="M112" s="61"/>
+      <c r="N112" s="61"/>
+      <c r="O112" s="62"/>
     </row>
     <row r="113" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B113" s="19"/>
       <c r="C113" s="20"/>
       <c r="D113" s="20"/>
-      <c r="E113" s="60" t="s">
+      <c r="E113" s="61" t="s">
         <v>213</v>
       </c>
-      <c r="F113" s="60"/>
-      <c r="G113" s="60"/>
-      <c r="H113" s="60"/>
-      <c r="I113" s="60"/>
-      <c r="J113" s="60"/>
-      <c r="K113" s="60"/>
-      <c r="L113" s="60"/>
-      <c r="M113" s="60"/>
-      <c r="N113" s="60"/>
-      <c r="O113" s="61"/>
+      <c r="F113" s="61"/>
+      <c r="G113" s="61"/>
+      <c r="H113" s="61"/>
+      <c r="I113" s="61"/>
+      <c r="J113" s="61"/>
+      <c r="K113" s="61"/>
+      <c r="L113" s="61"/>
+      <c r="M113" s="61"/>
+      <c r="N113" s="61"/>
+      <c r="O113" s="62"/>
     </row>
     <row r="114" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B114" s="19"/>
       <c r="C114" s="20"/>
-      <c r="D114" s="60" t="s">
+      <c r="D114" s="61" t="s">
         <v>214</v>
       </c>
-      <c r="E114" s="60"/>
-      <c r="F114" s="60"/>
-      <c r="G114" s="60"/>
-      <c r="H114" s="60"/>
-      <c r="I114" s="60"/>
-      <c r="J114" s="60"/>
-      <c r="K114" s="60"/>
-      <c r="L114" s="60"/>
-      <c r="M114" s="60"/>
-      <c r="N114" s="60"/>
-      <c r="O114" s="61"/>
+      <c r="E114" s="61"/>
+      <c r="F114" s="61"/>
+      <c r="G114" s="61"/>
+      <c r="H114" s="61"/>
+      <c r="I114" s="61"/>
+      <c r="J114" s="61"/>
+      <c r="K114" s="61"/>
+      <c r="L114" s="61"/>
+      <c r="M114" s="61"/>
+      <c r="N114" s="61"/>
+      <c r="O114" s="62"/>
     </row>
     <row r="115" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B115" s="19"/>
-      <c r="C115" s="60" t="s">
+      <c r="C115" s="61" t="s">
         <v>219</v>
       </c>
-      <c r="D115" s="60"/>
-      <c r="E115" s="60"/>
-      <c r="F115" s="60"/>
-      <c r="G115" s="60"/>
-      <c r="H115" s="60"/>
-      <c r="I115" s="60"/>
-      <c r="J115" s="60"/>
-      <c r="K115" s="60"/>
-      <c r="L115" s="60"/>
-      <c r="M115" s="60"/>
-      <c r="N115" s="60"/>
-      <c r="O115" s="61"/>
+      <c r="D115" s="61"/>
+      <c r="E115" s="61"/>
+      <c r="F115" s="61"/>
+      <c r="G115" s="61"/>
+      <c r="H115" s="61"/>
+      <c r="I115" s="61"/>
+      <c r="J115" s="61"/>
+      <c r="K115" s="61"/>
+      <c r="L115" s="61"/>
+      <c r="M115" s="61"/>
+      <c r="N115" s="61"/>
+      <c r="O115" s="62"/>
     </row>
     <row r="116" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B116" s="57" t="s">
+      <c r="B116" s="65" t="s">
         <v>207</v>
       </c>
-      <c r="C116" s="58"/>
-      <c r="D116" s="58"/>
-      <c r="E116" s="58"/>
-      <c r="F116" s="58"/>
-      <c r="G116" s="58"/>
-      <c r="H116" s="58"/>
-      <c r="I116" s="58"/>
-      <c r="J116" s="58"/>
-      <c r="K116" s="58"/>
-      <c r="L116" s="58"/>
-      <c r="M116" s="58"/>
-      <c r="N116" s="58"/>
-      <c r="O116" s="59"/>
+      <c r="C116" s="66"/>
+      <c r="D116" s="66"/>
+      <c r="E116" s="66"/>
+      <c r="F116" s="66"/>
+      <c r="G116" s="66"/>
+      <c r="H116" s="66"/>
+      <c r="I116" s="66"/>
+      <c r="J116" s="66"/>
+      <c r="K116" s="66"/>
+      <c r="L116" s="66"/>
+      <c r="M116" s="66"/>
+      <c r="N116" s="66"/>
+      <c r="O116" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="B46:O46"/>
-    <mergeCell ref="B47:O47"/>
-    <mergeCell ref="C48:O48"/>
-    <mergeCell ref="D49:O49"/>
-    <mergeCell ref="G55:O55"/>
-    <mergeCell ref="G56:O56"/>
-    <mergeCell ref="G57:O57"/>
-    <mergeCell ref="E62:O62"/>
-    <mergeCell ref="G58:O58"/>
-    <mergeCell ref="G59:O59"/>
-    <mergeCell ref="G60:O60"/>
-    <mergeCell ref="F61:O61"/>
-    <mergeCell ref="E50:O50"/>
-    <mergeCell ref="E51:O51"/>
-    <mergeCell ref="F52:O52"/>
-    <mergeCell ref="G53:O53"/>
-    <mergeCell ref="G54:O54"/>
-    <mergeCell ref="D69:O69"/>
-    <mergeCell ref="D70:O70"/>
-    <mergeCell ref="E63:O63"/>
-    <mergeCell ref="F64:O64"/>
-    <mergeCell ref="E65:O65"/>
-    <mergeCell ref="D66:O66"/>
-    <mergeCell ref="C67:O67"/>
-    <mergeCell ref="C68:O68"/>
-    <mergeCell ref="H81:O81"/>
-    <mergeCell ref="D72:O72"/>
-    <mergeCell ref="D73:O73"/>
-    <mergeCell ref="D74:O74"/>
-    <mergeCell ref="E75:O75"/>
-    <mergeCell ref="F76:O76"/>
-    <mergeCell ref="G77:O77"/>
-    <mergeCell ref="G78:O78"/>
-    <mergeCell ref="G79:O79"/>
-    <mergeCell ref="G80:O80"/>
+    <mergeCell ref="B116:O116"/>
+    <mergeCell ref="E113:O113"/>
+    <mergeCell ref="D114:O114"/>
+    <mergeCell ref="C115:O115"/>
+    <mergeCell ref="H107:O107"/>
+    <mergeCell ref="G108:O108"/>
+    <mergeCell ref="F109:O109"/>
+    <mergeCell ref="D111:O111"/>
+    <mergeCell ref="E110:O110"/>
+    <mergeCell ref="D112:O112"/>
+    <mergeCell ref="I106:O106"/>
+    <mergeCell ref="G94:O94"/>
+    <mergeCell ref="G96:O96"/>
+    <mergeCell ref="F97:O97"/>
+    <mergeCell ref="F98:O98"/>
+    <mergeCell ref="G99:O99"/>
+    <mergeCell ref="H100:O100"/>
+    <mergeCell ref="I101:O101"/>
+    <mergeCell ref="H102:O102"/>
+    <mergeCell ref="G103:O103"/>
+    <mergeCell ref="G104:O104"/>
+    <mergeCell ref="H105:O105"/>
     <mergeCell ref="H93:O93"/>
     <mergeCell ref="I82:O82"/>
     <mergeCell ref="I83:O83"/>
@@ -3969,28 +3956,41 @@
     <mergeCell ref="H90:O90"/>
     <mergeCell ref="G91:O91"/>
     <mergeCell ref="G92:O92"/>
-    <mergeCell ref="I106:O106"/>
-    <mergeCell ref="G94:O94"/>
-    <mergeCell ref="G96:O96"/>
-    <mergeCell ref="F97:O97"/>
-    <mergeCell ref="F98:O98"/>
-    <mergeCell ref="G99:O99"/>
-    <mergeCell ref="H100:O100"/>
-    <mergeCell ref="I101:O101"/>
-    <mergeCell ref="H102:O102"/>
-    <mergeCell ref="G103:O103"/>
-    <mergeCell ref="G104:O104"/>
-    <mergeCell ref="H105:O105"/>
-    <mergeCell ref="B116:O116"/>
-    <mergeCell ref="E113:O113"/>
-    <mergeCell ref="D114:O114"/>
-    <mergeCell ref="C115:O115"/>
-    <mergeCell ref="H107:O107"/>
-    <mergeCell ref="G108:O108"/>
-    <mergeCell ref="F109:O109"/>
-    <mergeCell ref="D111:O111"/>
-    <mergeCell ref="E110:O110"/>
-    <mergeCell ref="D112:O112"/>
+    <mergeCell ref="H81:O81"/>
+    <mergeCell ref="D72:O72"/>
+    <mergeCell ref="D73:O73"/>
+    <mergeCell ref="D74:O74"/>
+    <mergeCell ref="E75:O75"/>
+    <mergeCell ref="F76:O76"/>
+    <mergeCell ref="G77:O77"/>
+    <mergeCell ref="G78:O78"/>
+    <mergeCell ref="G79:O79"/>
+    <mergeCell ref="G80:O80"/>
+    <mergeCell ref="D69:O69"/>
+    <mergeCell ref="D70:O70"/>
+    <mergeCell ref="E63:O63"/>
+    <mergeCell ref="F64:O64"/>
+    <mergeCell ref="E65:O65"/>
+    <mergeCell ref="D66:O66"/>
+    <mergeCell ref="C67:O67"/>
+    <mergeCell ref="C68:O68"/>
+    <mergeCell ref="G56:O56"/>
+    <mergeCell ref="G57:O57"/>
+    <mergeCell ref="E62:O62"/>
+    <mergeCell ref="G58:O58"/>
+    <mergeCell ref="G59:O59"/>
+    <mergeCell ref="G60:O60"/>
+    <mergeCell ref="F61:O61"/>
+    <mergeCell ref="B46:O46"/>
+    <mergeCell ref="B47:O47"/>
+    <mergeCell ref="C48:O48"/>
+    <mergeCell ref="D49:O49"/>
+    <mergeCell ref="G55:O55"/>
+    <mergeCell ref="E50:O50"/>
+    <mergeCell ref="E51:O51"/>
+    <mergeCell ref="F52:O52"/>
+    <mergeCell ref="G53:O53"/>
+    <mergeCell ref="G54:O54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4003,7 +4003,7 @@
   <dimension ref="A2:U8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
